--- a/2020/MMIST_tree/tree_agp.xlsx
+++ b/2020/MMIST_tree/tree_agp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evgeniy.kozinov\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\svn\GlobalOptArticle\GlobOptPapers\2020\MMIST_tree\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6293960-8D54-4931-B21D-AEF649412A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0658AFA-2E3C-4758-B759-319A5D228095}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{980BEF41-B656-4BA1-99BA-83454E7E7F93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{980BEF41-B656-4BA1-99BA-83454E7E7F93}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>r</t>
   </si>
@@ -108,13 +108,19 @@
   <si>
     <t>1.35963386e</t>
   </si>
+  <si>
+    <t>АГП</t>
+  </si>
+  <si>
+    <t>модифицированный АГП</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -157,7 +163,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3074,7 +3080,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3087,30 +3093,27 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>ОХ функции Хилла</a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Операционные характеристики</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t>функции </a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t> </a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Хилла-Гибсона</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>r=3 d=4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>e=0.001</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU" sz="1400"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3127,7 +3130,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3158,7 +3161,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGP</c:v>
+                  <c:v>АГП</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3797,7 +3800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGP+tree(f,d=4)</c:v>
+                  <c:v>модифицированный АГП</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4442,6 +4445,7 @@
         <c:axId val="2029601679"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -4459,6 +4463,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Число проведенных испытаний</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4522,6 +4581,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>% решенных задач</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4680,22 +4794,26 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>ОХ функции Шекеля </a:t>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Операционные характеристики</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:r>
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>функции</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>r=3 d=4</a:t>
+              <a:rPr lang="ru-RU" sz="1400"/>
+              <a:t> Шекеля</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>e=0.001</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -4743,7 +4861,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGP</c:v>
+                  <c:v>АГП</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5388,7 +5506,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AGP+tree(f,d=4)</c:v>
+                  <c:v>модифицированный АГП</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6056,6 +6174,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>Число проведенных испытаний</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1100">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6119,6 +6297,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>% решенных задач</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -7957,15 +8195,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:colOff>590549</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>532949</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8003,10 +8241,10 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>519112</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>156712</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>155437</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14775,7 +15013,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E071E1-547B-4209-BE81-F7C38AF0025A}">
   <dimension ref="B1:R101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:R1"/>
     </sheetView>
   </sheetViews>
@@ -14830,23 +15068,23 @@
         <v>-11.271490715365699</v>
       </c>
       <c r="H2">
-        <f>ABS( D2-F2)</f>
+        <f t="shared" ref="H2:H33" si="0">ABS( D2-F2)</f>
         <v>4.5073518549319878E-5</v>
       </c>
       <c r="I2" s="2">
-        <f>G2-E2</f>
+        <f t="shared" ref="I2:I33" si="1">G2-E2</f>
         <v>2.1773376300160407E-5</v>
       </c>
       <c r="J2" t="b">
-        <f>I2&gt;0.01</f>
+        <f t="shared" ref="J2:J33" si="2">I2&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="K2" s="2">
-        <f>-I2</f>
+        <f t="shared" ref="K2:K33" si="3">-I2</f>
         <v>-2.1773376300160407E-5</v>
       </c>
       <c r="L2" t="b">
-        <f>K2&gt;0.01</f>
+        <f t="shared" ref="L2:L33" si="4">K2&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="N2">
@@ -14885,23 +15123,23 @@
         <v>-14.457635282660901</v>
       </c>
       <c r="H3">
-        <f>ABS( D3-F3)</f>
+        <f t="shared" si="0"/>
         <v>1.2541699539729903E-4</v>
       </c>
       <c r="I3" s="2">
-        <f>G3-E3</f>
+        <f t="shared" si="1"/>
         <v>-1.7088612070104148E-4</v>
       </c>
       <c r="J3" t="b">
-        <f>I3&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <f>-I3</f>
+        <f t="shared" si="3"/>
         <v>1.7088612070104148E-4</v>
       </c>
       <c r="L3" t="b">
-        <f>K3&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N3">
@@ -14940,23 +15178,23 @@
         <v>-14.1210217045739</v>
       </c>
       <c r="H4">
-        <f>ABS( D4-F4)</f>
+        <f t="shared" si="0"/>
         <v>1.7756170886680175E-4</v>
       </c>
       <c r="I4" s="2">
-        <f>G4-E4</f>
+        <f t="shared" si="1"/>
         <v>1.2568878359964231E-4</v>
       </c>
       <c r="J4" t="b">
-        <f>I4&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f>-I4</f>
+        <f t="shared" si="3"/>
         <v>-1.2568878359964231E-4</v>
       </c>
       <c r="L4" t="b">
-        <f>K4&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N4">
@@ -14995,23 +15233,23 @@
         <v>-16.914442334113101</v>
       </c>
       <c r="H5">
-        <f>ABS( D5-F5)</f>
+        <f t="shared" si="0"/>
         <v>5.7050677979200021E-4</v>
       </c>
       <c r="I5" s="2">
-        <f>G5-E5</f>
+        <f t="shared" si="1"/>
         <v>-4.0481210670151313E-4</v>
       </c>
       <c r="J5" t="b">
-        <f>I5&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f>-I5</f>
+        <f t="shared" si="3"/>
         <v>4.0481210670151313E-4</v>
       </c>
       <c r="L5" t="b">
-        <f>K5&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N5">
@@ -15050,23 +15288,23 @@
         <v>-15.5003925781413</v>
       </c>
       <c r="H6">
-        <f>ABS( D6-F6)</f>
+        <f t="shared" si="0"/>
         <v>2.7973525617479983E-4</v>
       </c>
       <c r="I6" s="2">
-        <f>G6-E6</f>
+        <f t="shared" si="1"/>
         <v>-6.2568170219989838E-4</v>
       </c>
       <c r="J6" t="b">
-        <f>I6&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f>-I6</f>
+        <f t="shared" si="3"/>
         <v>6.2568170219989838E-4</v>
       </c>
       <c r="L6" t="b">
-        <f>K6&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N6">
@@ -15105,23 +15343,23 @@
         <v>-11.4076516034105</v>
       </c>
       <c r="H7">
-        <f>ABS( D7-F7)</f>
+        <f t="shared" si="0"/>
         <v>8.7079908681249318E-4</v>
       </c>
       <c r="I7" s="2">
-        <f>G7-E7</f>
+        <f t="shared" si="1"/>
         <v>3.2613381481993997E-3</v>
       </c>
       <c r="J7" t="b">
-        <f>I7&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f>-I7</f>
+        <f t="shared" si="3"/>
         <v>-3.2613381481993997E-3</v>
       </c>
       <c r="L7" t="b">
-        <f>K7&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N7">
@@ -15160,23 +15398,23 @@
         <v>-17.430715351782901</v>
       </c>
       <c r="H8">
-        <f>ABS( D8-F8)</f>
+        <f t="shared" si="0"/>
         <v>1.1521017928901867E-5</v>
       </c>
       <c r="I8" s="2">
-        <f>G8-E8</f>
+        <f t="shared" si="1"/>
         <v>3.4952987899572463E-5</v>
       </c>
       <c r="J8" t="b">
-        <f>I8&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f>-I8</f>
+        <f t="shared" si="3"/>
         <v>-3.4952987899572463E-5</v>
       </c>
       <c r="L8" t="b">
-        <f>K8&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N8">
@@ -15215,23 +15453,23 @@
         <v>-14.4091764439589</v>
       </c>
       <c r="H9">
-        <f>ABS( D9-F9)</f>
+        <f t="shared" si="0"/>
         <v>9.7962346905219877E-4</v>
       </c>
       <c r="I9" s="2">
-        <f>G9-E9</f>
+        <f t="shared" si="1"/>
         <v>2.0103522595995571E-3</v>
       </c>
       <c r="J9" t="b">
-        <f>I9&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f>-I9</f>
+        <f t="shared" si="3"/>
         <v>-2.0103522595995571E-3</v>
       </c>
       <c r="L9" t="b">
-        <f>K9&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N9">
@@ -15270,23 +15508,23 @@
         <v>-9.9769813772957807</v>
       </c>
       <c r="H10">
-        <f>ABS( D10-F10)</f>
+        <f t="shared" si="0"/>
         <v>0.99905443680508987</v>
       </c>
       <c r="I10" s="2">
-        <f>G10-E10</f>
+        <f t="shared" si="1"/>
         <v>-1.5071241373014743E-3</v>
       </c>
       <c r="J10" t="b">
-        <f>I10&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f>-I10</f>
+        <f t="shared" si="3"/>
         <v>1.5071241373014743E-3</v>
       </c>
       <c r="L10" t="b">
-        <f>K10&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N10">
@@ -15325,23 +15563,23 @@
         <v>-16.142438829836799</v>
       </c>
       <c r="H11">
-        <f>ABS( D11-F11)</f>
+        <f t="shared" si="0"/>
         <v>1.2430474902678096E-3</v>
       </c>
       <c r="I11" s="2">
-        <f>G11-E11</f>
+        <f t="shared" si="1"/>
         <v>-2.0971416583996927E-3</v>
       </c>
       <c r="J11" t="b">
-        <f>I11&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f>-I11</f>
+        <f t="shared" si="3"/>
         <v>2.0971416583996927E-3</v>
       </c>
       <c r="L11" t="b">
-        <f>K11&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11">
@@ -15380,23 +15618,23 @@
         <v>-16.277566508147199</v>
       </c>
       <c r="H12">
-        <f>ABS( D12-F12)</f>
+        <f t="shared" si="0"/>
         <v>2.231003291606054E-4</v>
       </c>
       <c r="I12" s="2">
-        <f>G12-E12</f>
+        <f t="shared" si="1"/>
         <v>3.1954020260016591E-4</v>
       </c>
       <c r="J12" t="b">
-        <f>I12&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K12" s="2">
-        <f>-I12</f>
+        <f t="shared" si="3"/>
         <v>-3.1954020260016591E-4</v>
       </c>
       <c r="L12" t="b">
-        <f>K12&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N12">
@@ -15435,23 +15673,23 @@
         <v>-14.548186427239401</v>
       </c>
       <c r="H13">
-        <f>ABS( D13-F13)</f>
+        <f t="shared" si="0"/>
         <v>2.8621965838189906E-3</v>
       </c>
       <c r="I13" s="2">
-        <f>G13-E13</f>
+        <f t="shared" si="1"/>
         <v>-1.5490318262800784E-2</v>
       </c>
       <c r="J13" t="b">
-        <f>I13&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K13" s="2">
-        <f>-I13</f>
+        <f t="shared" si="3"/>
         <v>1.5490318262800784E-2</v>
       </c>
       <c r="L13" t="b">
-        <f>K13&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N13">
@@ -15490,23 +15728,23 @@
         <v>-14.999067433579899</v>
       </c>
       <c r="H14">
-        <f>ABS( D14-F14)</f>
+        <f t="shared" si="0"/>
         <v>2.2541610480779975E-3</v>
       </c>
       <c r="I14" s="2">
-        <f>G14-E14</f>
+        <f t="shared" si="1"/>
         <v>8.2049711172000883E-3</v>
       </c>
       <c r="J14" t="b">
-        <f>I14&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K14" s="2">
-        <f>-I14</f>
+        <f t="shared" si="3"/>
         <v>-8.2049711172000883E-3</v>
       </c>
       <c r="L14" t="b">
-        <f>K14&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N14">
@@ -15545,23 +15783,23 @@
         <v>-11.3349391709808</v>
       </c>
       <c r="H15">
-        <f>ABS( D15-F15)</f>
+        <f t="shared" si="0"/>
         <v>5.619403824325196E-4</v>
       </c>
       <c r="I15" s="2">
-        <f>G15-E15</f>
+        <f t="shared" si="1"/>
         <v>-6.1172315199087279E-5</v>
       </c>
       <c r="J15" t="b">
-        <f>I15&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K15" s="2">
-        <f>-I15</f>
+        <f t="shared" si="3"/>
         <v>6.1172315199087279E-5</v>
       </c>
       <c r="L15" t="b">
-        <f>K15&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N15">
@@ -15600,23 +15838,23 @@
         <v>-15.650792143271</v>
       </c>
       <c r="H16">
-        <f>ABS( D16-F16)</f>
+        <f t="shared" si="0"/>
         <v>2.934723528403016E-4</v>
       </c>
       <c r="I16" s="2">
-        <f>G16-E16</f>
+        <f t="shared" si="1"/>
         <v>2.5410836520123325E-4</v>
       </c>
       <c r="J16" t="b">
-        <f>I16&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K16" s="2">
-        <f>-I16</f>
+        <f t="shared" si="3"/>
         <v>-2.5410836520123325E-4</v>
       </c>
       <c r="L16" t="b">
-        <f>K16&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N16">
@@ -15655,23 +15893,23 @@
         <v>-12.448062686249999</v>
       </c>
       <c r="H17">
-        <f>ABS( D17-F17)</f>
+        <f t="shared" si="0"/>
         <v>1.6836367678899067E-4</v>
       </c>
       <c r="I17" s="2">
-        <f>G17-E17</f>
+        <f t="shared" si="1"/>
         <v>-1.7642133370010527E-4</v>
       </c>
       <c r="J17" t="b">
-        <f>I17&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K17" s="2">
-        <f>-I17</f>
+        <f t="shared" si="3"/>
         <v>1.7642133370010527E-4</v>
       </c>
       <c r="L17" t="b">
-        <f>K17&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N17">
@@ -15710,23 +15948,23 @@
         <v>-22.484632812815899</v>
       </c>
       <c r="H18">
-        <f>ABS( D18-F18)</f>
+        <f t="shared" si="0"/>
         <v>4.6628049081540168E-4</v>
       </c>
       <c r="I18" s="2">
-        <f>G18-E18</f>
+        <f t="shared" si="1"/>
         <v>-2.8452849632998323E-3</v>
       </c>
       <c r="J18" t="b">
-        <f>I18&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K18" s="2">
-        <f>-I18</f>
+        <f t="shared" si="3"/>
         <v>2.8452849632998323E-3</v>
       </c>
       <c r="L18" t="b">
-        <f>K18&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N18">
@@ -15765,23 +16003,23 @@
         <v>-20.4695633780611</v>
       </c>
       <c r="H19">
-        <f>ABS( D19-F19)</f>
+        <f t="shared" si="0"/>
         <v>1.4123813108699729E-4</v>
       </c>
       <c r="I19" s="2">
-        <f>G19-E19</f>
+        <f t="shared" si="1"/>
         <v>-1.6730238499462757E-5</v>
       </c>
       <c r="J19" t="b">
-        <f>I19&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K19" s="2">
-        <f>-I19</f>
+        <f t="shared" si="3"/>
         <v>1.6730238499462757E-5</v>
       </c>
       <c r="L19" t="b">
-        <f>K19&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N19">
@@ -15820,23 +16058,23 @@
         <v>-14.984744209843299</v>
       </c>
       <c r="H20">
-        <f>ABS( D20-F20)</f>
+        <f t="shared" si="0"/>
         <v>2.1287912777089996E-3</v>
       </c>
       <c r="I20" s="2">
-        <f>G20-E20</f>
+        <f t="shared" si="1"/>
         <v>1.8659005703501208E-2</v>
       </c>
       <c r="J20" t="b">
-        <f>I20&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K20" s="2">
-        <f>-I20</f>
+        <f t="shared" si="3"/>
         <v>-1.8659005703501208E-2</v>
       </c>
       <c r="L20" t="b">
-        <f>K20&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N20">
@@ -15875,23 +16113,23 @@
         <v>-15.477756354981899</v>
       </c>
       <c r="H21">
-        <f>ABS( D21-F21)</f>
+        <f t="shared" si="0"/>
         <v>4.5880617753749769E-4</v>
       </c>
       <c r="I21" s="2">
-        <f>G21-E21</f>
+        <f t="shared" si="1"/>
         <v>-6.3731468550010106E-4</v>
       </c>
       <c r="J21" t="b">
-        <f>I21&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K21" s="2">
-        <f>-I21</f>
+        <f t="shared" si="3"/>
         <v>6.3731468550010106E-4</v>
       </c>
       <c r="L21" t="b">
-        <f>K21&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N21">
@@ -15930,23 +16168,23 @@
         <v>-12.005605978800199</v>
       </c>
       <c r="H22">
-        <f>ABS( D22-F22)</f>
+        <f t="shared" si="0"/>
         <v>1.5662228897299294E-3</v>
       </c>
       <c r="I22" s="2">
-        <f>G22-E22</f>
+        <f t="shared" si="1"/>
         <v>-2.5241706058984903E-3</v>
       </c>
       <c r="J22" t="b">
-        <f>I22&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K22" s="2">
-        <f>-I22</f>
+        <f t="shared" si="3"/>
         <v>2.5241706058984903E-3</v>
       </c>
       <c r="L22" t="b">
-        <f>K22&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N22">
@@ -15985,23 +16223,23 @@
         <v>-11.0396936910882</v>
       </c>
       <c r="H23">
-        <f>ABS( D23-F23)</f>
+        <f t="shared" si="0"/>
         <v>5.7964569809554334E-6</v>
       </c>
       <c r="I23" s="2">
-        <f>G23-E23</f>
+        <f t="shared" si="1"/>
         <v>-9.5123899992444194E-6</v>
       </c>
       <c r="J23" t="b">
-        <f>I23&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K23" s="2">
-        <f>-I23</f>
+        <f t="shared" si="3"/>
         <v>9.5123899992444194E-6</v>
       </c>
       <c r="L23" t="b">
-        <f>K23&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23">
@@ -16040,23 +16278,23 @@
         <v>-14.246205175268599</v>
       </c>
       <c r="H24">
-        <f>ABS( D24-F24)</f>
+        <f t="shared" si="0"/>
         <v>7.0272251479400194E-4</v>
       </c>
       <c r="I24" s="2">
-        <f>G24-E24</f>
+        <f t="shared" si="1"/>
         <v>-5.0943425569904832E-4</v>
       </c>
       <c r="J24" t="b">
-        <f>I24&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K24" s="2">
-        <f>-I24</f>
+        <f t="shared" si="3"/>
         <v>5.0943425569904832E-4</v>
       </c>
       <c r="L24" t="b">
-        <f>K24&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N24">
@@ -16095,23 +16333,23 @@
         <v>-10.6602001768868</v>
       </c>
       <c r="H25">
-        <f>ABS( D25-F25)</f>
+        <f t="shared" si="0"/>
         <v>4.1908576007879811E-4</v>
       </c>
       <c r="I25" s="2">
-        <f>G25-E25</f>
+        <f t="shared" si="1"/>
         <v>1.0788082889945372E-4</v>
       </c>
       <c r="J25" t="b">
-        <f>I25&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K25" s="2">
-        <f>-I25</f>
+        <f t="shared" si="3"/>
         <v>-1.0788082889945372E-4</v>
       </c>
       <c r="L25" t="b">
-        <f>K25&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N25">
@@ -16150,23 +16388,23 @@
         <v>-18.945838378199099</v>
       </c>
       <c r="H26">
-        <f>ABS( D26-F26)</f>
+        <f t="shared" si="0"/>
         <v>1.0986727032540056E-4</v>
       </c>
       <c r="I26" s="2">
-        <f>G26-E26</f>
+        <f t="shared" si="1"/>
         <v>-1.4332946489759024E-4</v>
       </c>
       <c r="J26" t="b">
-        <f>I26&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K26" s="2">
-        <f>-I26</f>
+        <f t="shared" si="3"/>
         <v>1.4332946489759024E-4</v>
       </c>
       <c r="L26" t="b">
-        <f>K26&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N26">
@@ -16205,23 +16443,23 @@
         <v>-10.213425131926799</v>
       </c>
       <c r="H27">
-        <f>ABS( D27-F27)</f>
+        <f t="shared" si="0"/>
         <v>3.2727558638859233E-4</v>
       </c>
       <c r="I27" s="2">
-        <f>G27-E27</f>
+        <f t="shared" si="1"/>
         <v>-4.9675669298920866E-5</v>
       </c>
       <c r="J27" t="b">
-        <f>I27&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K27" s="2">
-        <f>-I27</f>
+        <f t="shared" si="3"/>
         <v>4.9675669298920866E-5</v>
       </c>
       <c r="L27" t="b">
-        <f>K27&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N27">
@@ -16260,23 +16498,23 @@
         <v>-17.1576972458721</v>
       </c>
       <c r="H28">
-        <f>ABS( D28-F28)</f>
+        <f t="shared" si="0"/>
         <v>6.9610459242699929E-4</v>
       </c>
       <c r="I28" s="2">
-        <f>G28-E28</f>
+        <f t="shared" si="1"/>
         <v>-1.926455768987978E-4</v>
       </c>
       <c r="J28" t="b">
-        <f>I28&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K28" s="2">
-        <f>-I28</f>
+        <f t="shared" si="3"/>
         <v>1.926455768987978E-4</v>
       </c>
       <c r="L28" t="b">
-        <f>K28&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N28">
@@ -16315,23 +16553,23 @@
         <v>-14.555941735726099</v>
       </c>
       <c r="H29">
-        <f>ABS( D29-F29)</f>
+        <f t="shared" si="0"/>
         <v>1.6289945206037978E-3</v>
       </c>
       <c r="I29" s="2">
-        <f>G29-E29</f>
+        <f t="shared" si="1"/>
         <v>-3.4623999559002527E-3</v>
       </c>
       <c r="J29" t="b">
-        <f>I29&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K29" s="2">
-        <f>-I29</f>
+        <f t="shared" si="3"/>
         <v>3.4623999559002527E-3</v>
       </c>
       <c r="L29" t="b">
-        <f>K29&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N29">
@@ -16370,23 +16608,23 @@
         <v>-17.264726242153799</v>
       </c>
       <c r="H30">
-        <f>ABS( D30-F30)</f>
+        <f t="shared" si="0"/>
         <v>3.339143893201002E-3</v>
       </c>
       <c r="I30" s="2">
-        <f>G30-E30</f>
+        <f t="shared" si="1"/>
         <v>-4.4123489998099785E-2</v>
       </c>
       <c r="J30" t="b">
-        <f>I30&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K30" s="2">
-        <f>-I30</f>
+        <f t="shared" si="3"/>
         <v>4.4123489998099785E-2</v>
       </c>
       <c r="L30" t="b">
-        <f>K30&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="N30">
@@ -16425,23 +16663,23 @@
         <v>-11.9495929550926</v>
       </c>
       <c r="H31">
-        <f>ABS( D31-F31)</f>
+        <f t="shared" si="0"/>
         <v>2.4182774658210171E-4</v>
       </c>
       <c r="I31" s="2">
-        <f>G31-E31</f>
+        <f t="shared" si="1"/>
         <v>3.0552171090114655E-4</v>
       </c>
       <c r="J31" t="b">
-        <f>I31&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K31" s="2">
-        <f>-I31</f>
+        <f t="shared" si="3"/>
         <v>-3.0552171090114655E-4</v>
       </c>
       <c r="L31" t="b">
-        <f>K31&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N31">
@@ -16480,23 +16718,23 @@
         <v>-8.9330169725346504</v>
       </c>
       <c r="H32">
-        <f>ABS( D32-F32)</f>
+        <f t="shared" si="0"/>
         <v>1.4544364292800038E-3</v>
       </c>
       <c r="I32" s="2">
-        <f>G32-E32</f>
+        <f t="shared" si="1"/>
         <v>-1.6013429171408688E-3</v>
       </c>
       <c r="J32" t="b">
-        <f>I32&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K32" s="2">
-        <f>-I32</f>
+        <f t="shared" si="3"/>
         <v>1.6013429171408688E-3</v>
       </c>
       <c r="L32" t="b">
-        <f>K32&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N32">
@@ -16535,23 +16773,23 @@
         <v>-11.978480099690699</v>
       </c>
       <c r="H33">
-        <f>ABS( D33-F33)</f>
+        <f t="shared" si="0"/>
         <v>1.8295378759802111E-3</v>
       </c>
       <c r="I33" s="2">
-        <f>G33-E33</f>
+        <f t="shared" si="1"/>
         <v>4.1265048979965968E-4</v>
       </c>
       <c r="J33" t="b">
-        <f>I33&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K33" s="2">
-        <f>-I33</f>
+        <f t="shared" si="3"/>
         <v>-4.1265048979965968E-4</v>
       </c>
       <c r="L33" t="b">
-        <f>K33&gt;0.01</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N33">
@@ -16590,23 +16828,23 @@
         <v>-16.985797762931298</v>
       </c>
       <c r="H34">
-        <f>ABS( D34-F34)</f>
+        <f t="shared" ref="H34:H65" si="5">ABS( D34-F34)</f>
         <v>5.6896450903100304E-5</v>
       </c>
       <c r="I34" s="2">
-        <f>G34-E34</f>
+        <f t="shared" ref="I34:I65" si="6">G34-E34</f>
         <v>-7.9554353799693445E-5</v>
       </c>
       <c r="J34" t="b">
-        <f>I34&gt;0.01</f>
+        <f t="shared" ref="J34:J65" si="7">I34&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="K34" s="2">
-        <f>-I34</f>
+        <f t="shared" ref="K34:K65" si="8">-I34</f>
         <v>7.9554353799693445E-5</v>
       </c>
       <c r="L34" t="b">
-        <f>K34&gt;0.01</f>
+        <f t="shared" ref="L34:L65" si="9">K34&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="N34">
@@ -16645,23 +16883,23 @@
         <v>-18.122478139300402</v>
       </c>
       <c r="H35">
-        <f>ABS( D35-F35)</f>
+        <f t="shared" si="5"/>
         <v>4.1617889486969539E-4</v>
       </c>
       <c r="I35" s="2">
-        <f>G35-E35</f>
+        <f t="shared" si="6"/>
         <v>-7.4856581001370159E-5</v>
       </c>
       <c r="J35" t="b">
-        <f>I35&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K35" s="2">
-        <f>-I35</f>
+        <f t="shared" si="8"/>
         <v>7.4856581001370159E-5</v>
       </c>
       <c r="L35" t="b">
-        <f>K35&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N35">
@@ -16700,23 +16938,23 @@
         <v>-9.4857900904018493</v>
       </c>
       <c r="H36">
-        <f>ABS( D36-F36)</f>
+        <f t="shared" si="5"/>
         <v>5.3855892064999522E-4</v>
       </c>
       <c r="I36" s="2">
-        <f>G36-E36</f>
+        <f t="shared" si="6"/>
         <v>-1.2364184753010932E-4</v>
       </c>
       <c r="J36" t="b">
-        <f>I36&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K36" s="2">
-        <f>-I36</f>
+        <f t="shared" si="8"/>
         <v>1.2364184753010932E-4</v>
       </c>
       <c r="L36" t="b">
-        <f>K36&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N36">
@@ -16755,23 +16993,23 @@
         <v>-15.7488327039613</v>
       </c>
       <c r="H37">
-        <f>ABS( D37-F37)</f>
+        <f t="shared" si="5"/>
         <v>2.2639524697200264E-5</v>
       </c>
       <c r="I37" s="2">
-        <f>G37-E37</f>
+        <f t="shared" si="6"/>
         <v>-4.9216230024740071E-7</v>
       </c>
       <c r="J37" t="b">
-        <f>I37&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K37" s="2">
-        <f>-I37</f>
+        <f t="shared" si="8"/>
         <v>4.9216230024740071E-7</v>
       </c>
       <c r="L37" t="b">
-        <f>K37&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N37">
@@ -16810,23 +17048,23 @@
         <v>-7.9190279644031403</v>
       </c>
       <c r="H38">
-        <f>ABS( D38-F38)</f>
+        <f t="shared" si="5"/>
         <v>4.7006453239850643E-6</v>
       </c>
       <c r="I38" s="2">
-        <f>G38-E38</f>
+        <f t="shared" si="6"/>
         <v>2.6463477839300253E-5</v>
       </c>
       <c r="J38" t="b">
-        <f>I38&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K38" s="2">
-        <f>-I38</f>
+        <f t="shared" si="8"/>
         <v>-2.6463477839300253E-5</v>
       </c>
       <c r="L38" t="b">
-        <f>K38&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N38">
@@ -16865,23 +17103,23 @@
         <v>-7.3363892507984403</v>
       </c>
       <c r="H39">
-        <f>ABS( D39-F39)</f>
+        <f t="shared" si="5"/>
         <v>1.6999452826270411E-4</v>
       </c>
       <c r="I39" s="2">
-        <f>G39-E39</f>
+        <f t="shared" si="6"/>
         <v>-6.5222374905360425E-6</v>
       </c>
       <c r="J39" t="b">
-        <f>I39&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K39" s="2">
-        <f>-I39</f>
+        <f t="shared" si="8"/>
         <v>6.5222374905360425E-6</v>
       </c>
       <c r="L39" t="b">
-        <f>K39&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N39">
@@ -16920,23 +17158,23 @@
         <v>-5.7407368211257301</v>
       </c>
       <c r="H40">
-        <f>ABS( D40-F40)</f>
+        <f t="shared" si="5"/>
         <v>7.1120430882590062E-4</v>
       </c>
       <c r="I40" s="2">
-        <f>G40-E40</f>
+        <f t="shared" si="6"/>
         <v>-1.3866004390017395E-4</v>
       </c>
       <c r="J40" t="b">
-        <f>I40&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K40" s="2">
-        <f>-I40</f>
+        <f t="shared" si="8"/>
         <v>1.3866004390017395E-4</v>
       </c>
       <c r="L40" t="b">
-        <f>K40&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N40">
@@ -16975,23 +17213,23 @@
         <v>-15.0540935301362</v>
       </c>
       <c r="H41">
-        <f>ABS( D41-F41)</f>
+        <f t="shared" si="5"/>
         <v>1.5542965376709739E-3</v>
       </c>
       <c r="I41" s="2">
-        <f>G41-E41</f>
+        <f t="shared" si="6"/>
         <v>-6.5410923500053286E-4</v>
       </c>
       <c r="J41" t="b">
-        <f>I41&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K41" s="2">
-        <f>-I41</f>
+        <f t="shared" si="8"/>
         <v>6.5410923500053286E-4</v>
       </c>
       <c r="L41" t="b">
-        <f>K41&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N41">
@@ -17030,23 +17268,23 @@
         <v>-13.061936119104599</v>
       </c>
       <c r="H42">
-        <f>ABS( D42-F42)</f>
+        <f t="shared" si="5"/>
         <v>1.1839844253844004E-3</v>
       </c>
       <c r="I42" s="2">
-        <f>G42-E42</f>
+        <f t="shared" si="6"/>
         <v>-8.735257511993666E-4</v>
       </c>
       <c r="J42" t="b">
-        <f>I42&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K42" s="2">
-        <f>-I42</f>
+        <f t="shared" si="8"/>
         <v>8.735257511993666E-4</v>
       </c>
       <c r="L42" t="b">
-        <f>K42&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N42">
@@ -17085,23 +17323,23 @@
         <v>-11.3486395662215</v>
       </c>
       <c r="H43">
-        <f>ABS( D43-F43)</f>
+        <f t="shared" si="5"/>
         <v>1.7153803424789782E-3</v>
       </c>
       <c r="I43" s="2">
-        <f>G43-E43</f>
+        <f t="shared" si="6"/>
         <v>-4.6993001806008294E-3</v>
       </c>
       <c r="J43" t="b">
-        <f>I43&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K43" s="2">
-        <f>-I43</f>
+        <f t="shared" si="8"/>
         <v>4.6993001806008294E-3</v>
       </c>
       <c r="L43" t="b">
-        <f>K43&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N43">
@@ -17140,23 +17378,23 @@
         <v>-13.278917723185501</v>
       </c>
       <c r="H44">
-        <f>ABS( D44-F44)</f>
+        <f t="shared" si="5"/>
         <v>0.99805451066159045</v>
       </c>
       <c r="I44" s="2">
-        <f>G44-E44</f>
+        <f t="shared" si="6"/>
         <v>-1.8909469713008775E-3</v>
       </c>
       <c r="J44" t="b">
-        <f>I44&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K44" s="2">
-        <f>-I44</f>
+        <f t="shared" si="8"/>
         <v>1.8909469713008775E-3</v>
       </c>
       <c r="L44" t="b">
-        <f>K44&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N44">
@@ -17195,23 +17433,23 @@
         <v>-6.9844342508048101</v>
       </c>
       <c r="H45">
-        <f>ABS( D45-F45)</f>
+        <f t="shared" si="5"/>
         <v>6.9546394753000618E-4</v>
       </c>
       <c r="I45" s="2">
-        <f>G45-E45</f>
+        <f t="shared" si="6"/>
         <v>-1.152659710967896E-5</v>
       </c>
       <c r="J45" t="b">
-        <f>I45&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K45" s="2">
-        <f>-I45</f>
+        <f t="shared" si="8"/>
         <v>1.152659710967896E-5</v>
       </c>
       <c r="L45" t="b">
-        <f>K45&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N45">
@@ -17250,23 +17488,23 @@
         <v>-7.2339672239723098</v>
       </c>
       <c r="H46">
-        <f>ABS( D46-F46)</f>
+        <f t="shared" si="5"/>
         <v>8.8202009399779985E-4</v>
       </c>
       <c r="I46" s="2">
-        <f>G46-E46</f>
+        <f t="shared" si="6"/>
         <v>-7.6588226222007449E-4</v>
       </c>
       <c r="J46" t="b">
-        <f>I46&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K46" s="2">
-        <f>-I46</f>
+        <f t="shared" si="8"/>
         <v>7.6588226222007449E-4</v>
       </c>
       <c r="L46" t="b">
-        <f>K46&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N46">
@@ -17305,23 +17543,23 @@
         <v>-10.965908403324701</v>
       </c>
       <c r="H47">
-        <f>ABS( D47-F47)</f>
+        <f t="shared" si="5"/>
         <v>2.4433686890901196E-4</v>
       </c>
       <c r="I47" s="2">
-        <f>G47-E47</f>
+        <f t="shared" si="6"/>
         <v>8.2228643899284748E-5</v>
       </c>
       <c r="J47" t="b">
-        <f>I47&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K47" s="2">
-        <f>-I47</f>
+        <f t="shared" si="8"/>
         <v>-8.2228643899284748E-5</v>
       </c>
       <c r="L47" t="b">
-        <f>K47&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N47">
@@ -17360,23 +17598,23 @@
         <v>-18.004768815933001</v>
       </c>
       <c r="H48">
-        <f>ABS( D48-F48)</f>
+        <f t="shared" si="5"/>
         <v>9.4457540108189991E-4</v>
       </c>
       <c r="I48" s="2">
-        <f>G48-E48</f>
+        <f t="shared" si="6"/>
         <v>-4.6914396631017041E-3</v>
       </c>
       <c r="J48" t="b">
-        <f>I48&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K48" s="2">
-        <f>-I48</f>
+        <f t="shared" si="8"/>
         <v>4.6914396631017041E-3</v>
       </c>
       <c r="L48" t="b">
-        <f>K48&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N48">
@@ -17415,23 +17653,23 @@
         <v>-11.511334925983</v>
       </c>
       <c r="H49">
-        <f>ABS( D49-F49)</f>
+        <f t="shared" si="5"/>
         <v>3.4493178797949942E-3</v>
       </c>
       <c r="I49" s="2">
-        <f>G49-E49</f>
+        <f t="shared" si="6"/>
         <v>-2.0648661876199625E-2</v>
       </c>
       <c r="J49" t="b">
-        <f>I49&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K49" s="2">
-        <f>-I49</f>
+        <f t="shared" si="8"/>
         <v>2.0648661876199625E-2</v>
       </c>
       <c r="L49" t="b">
-        <f>K49&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N49">
@@ -17470,23 +17708,23 @@
         <v>-17.704791471054399</v>
       </c>
       <c r="H50">
-        <f>ABS( D50-F50)</f>
+        <f t="shared" si="5"/>
         <v>2.5273302353994997E-3</v>
       </c>
       <c r="I50" s="2">
-        <f>G50-E50</f>
+        <f t="shared" si="6"/>
         <v>5.45435015260054E-3</v>
       </c>
       <c r="J50" t="b">
-        <f>I50&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K50" s="2">
-        <f>-I50</f>
+        <f t="shared" si="8"/>
         <v>-5.45435015260054E-3</v>
       </c>
       <c r="L50" t="b">
-        <f>K50&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N50">
@@ -17525,23 +17763,23 @@
         <v>-7.6145792947283404</v>
       </c>
       <c r="H51">
-        <f>ABS( D51-F51)</f>
+        <f t="shared" si="5"/>
         <v>7.3947872799018377E-5</v>
       </c>
       <c r="I51" s="2">
-        <f>G51-E51</f>
+        <f t="shared" si="6"/>
         <v>1.4299234250003678E-5</v>
       </c>
       <c r="J51" t="b">
-        <f>I51&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K51" s="2">
-        <f>-I51</f>
+        <f t="shared" si="8"/>
         <v>-1.4299234250003678E-5</v>
       </c>
       <c r="L51" t="b">
-        <f>K51&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N51">
@@ -17580,23 +17818,23 @@
         <v>-7.2426125540677804</v>
       </c>
       <c r="H52">
-        <f>ABS( D52-F52)</f>
+        <f t="shared" si="5"/>
         <v>3.0329061087197573E-4</v>
       </c>
       <c r="I52" s="2">
-        <f>G52-E52</f>
+        <f t="shared" si="6"/>
         <v>-9.4093251501448094E-6</v>
       </c>
       <c r="J52" t="b">
-        <f>I52&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K52" s="2">
-        <f>-I52</f>
+        <f t="shared" si="8"/>
         <v>9.4093251501448094E-6</v>
       </c>
       <c r="L52" t="b">
-        <f>K52&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N52">
@@ -17635,23 +17873,23 @@
         <v>-10.074167337530101</v>
       </c>
       <c r="H53">
-        <f>ABS( D53-F53)</f>
+        <f t="shared" si="5"/>
         <v>1.9376529625120265E-4</v>
       </c>
       <c r="I53" s="2">
-        <f>G53-E53</f>
+        <f t="shared" si="6"/>
         <v>-1.1391398310145462E-4</v>
       </c>
       <c r="J53" t="b">
-        <f>I53&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K53" s="2">
-        <f>-I53</f>
+        <f t="shared" si="8"/>
         <v>1.1391398310145462E-4</v>
       </c>
       <c r="L53" t="b">
-        <f>K53&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N53">
@@ -17690,23 +17928,23 @@
         <v>-11.540358301450601</v>
       </c>
       <c r="H54">
-        <f>ABS( D54-F54)</f>
+        <f t="shared" si="5"/>
         <v>7.070602638048068E-4</v>
       </c>
       <c r="I54" s="2">
-        <f>G54-E54</f>
+        <f t="shared" si="6"/>
         <v>-6.9276001782014873E-3</v>
       </c>
       <c r="J54" t="b">
-        <f>I54&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K54" s="2">
-        <f>-I54</f>
+        <f t="shared" si="8"/>
         <v>6.9276001782014873E-3</v>
       </c>
       <c r="L54" t="b">
-        <f>K54&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N54">
@@ -17745,23 +17983,23 @@
         <v>-10.051618233250601</v>
       </c>
       <c r="H55">
-        <f>ABS( D55-F55)</f>
+        <f t="shared" si="5"/>
         <v>8.2499504871200169E-5</v>
       </c>
       <c r="I55" s="2">
-        <f>G55-E55</f>
+        <f t="shared" si="6"/>
         <v>-1.6398441701426236E-5</v>
       </c>
       <c r="J55" t="b">
-        <f>I55&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K55" s="2">
-        <f>-I55</f>
+        <f t="shared" si="8"/>
         <v>1.6398441701426236E-5</v>
       </c>
       <c r="L55" t="b">
-        <f>K55&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N55">
@@ -17800,23 +18038,23 @@
         <v>-12.396488462594</v>
       </c>
       <c r="H56">
-        <f>ABS( D56-F56)</f>
+        <f t="shared" si="5"/>
         <v>0.59852110726097085</v>
       </c>
       <c r="I56" s="2">
-        <f>G56-E56</f>
+        <f t="shared" si="6"/>
         <v>1.3068739203911992</v>
       </c>
       <c r="J56" t="b">
-        <f>I56&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="K56" s="2">
-        <f>-I56</f>
+        <f t="shared" si="8"/>
         <v>-1.3068739203911992</v>
       </c>
       <c r="L56" t="b">
-        <f>K56&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N56">
@@ -17855,23 +18093,23 @@
         <v>-9.6605909796044198</v>
       </c>
       <c r="H57">
-        <f>ABS( D57-F57)</f>
+        <f t="shared" si="5"/>
         <v>3.2013917699491926E-4</v>
       </c>
       <c r="I57" s="2">
-        <f>G57-E57</f>
+        <f t="shared" si="6"/>
         <v>-8.4092028050264389E-5</v>
       </c>
       <c r="J57" t="b">
-        <f>I57&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K57" s="2">
-        <f>-I57</f>
+        <f t="shared" si="8"/>
         <v>8.4092028050264389E-5</v>
       </c>
       <c r="L57" t="b">
-        <f>K57&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N57">
@@ -17910,23 +18148,23 @@
         <v>-9.2111882289339508</v>
       </c>
       <c r="H58">
-        <f>ABS( D58-F58)</f>
+        <f t="shared" si="5"/>
         <v>3.7124911017805129E-4</v>
       </c>
       <c r="I58" s="2">
-        <f>G58-E58</f>
+        <f t="shared" si="6"/>
         <v>6.9004929381932811E-4</v>
       </c>
       <c r="J58" t="b">
-        <f>I58&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K58" s="2">
-        <f>-I58</f>
+        <f t="shared" si="8"/>
         <v>-6.9004929381932811E-4</v>
       </c>
       <c r="L58" t="b">
-        <f>K58&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N58">
@@ -17965,23 +18203,23 @@
         <v>-13.6659102588967</v>
       </c>
       <c r="H59">
-        <f>ABS( D59-F59)</f>
+        <f t="shared" si="5"/>
         <v>1.4042441761179941E-4</v>
       </c>
       <c r="I59" s="2">
-        <f>G59-E59</f>
+        <f t="shared" si="6"/>
         <v>-6.6293072800149844E-5</v>
       </c>
       <c r="J59" t="b">
-        <f>I59&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K59" s="2">
-        <f>-I59</f>
+        <f t="shared" si="8"/>
         <v>6.6293072800149844E-5</v>
       </c>
       <c r="L59" t="b">
-        <f>K59&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N59">
@@ -18020,23 +18258,23 @@
         <v>-4.5866625120306104</v>
       </c>
       <c r="H60">
-        <f>ABS( D60-F60)</f>
+        <f t="shared" si="5"/>
         <v>1.144563230550677E-4</v>
       </c>
       <c r="I60" s="2">
-        <f>G60-E60</f>
+        <f t="shared" si="6"/>
         <v>-1.1088446082041514E-4</v>
       </c>
       <c r="J60" t="b">
-        <f>I60&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K60" s="2">
-        <f>-I60</f>
+        <f t="shared" si="8"/>
         <v>1.1088446082041514E-4</v>
       </c>
       <c r="L60" t="b">
-        <f>K60&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N60">
@@ -18075,23 +18313,23 @@
         <v>-10.2438421050753</v>
       </c>
       <c r="H61">
-        <f>ABS( D61-F61)</f>
+        <f t="shared" si="5"/>
         <v>4.3297496650548297E-3</v>
       </c>
       <c r="I61" s="2">
-        <f>G61-E61</f>
+        <f t="shared" si="6"/>
         <v>-4.1912711049100437E-2</v>
       </c>
       <c r="J61" t="b">
-        <f>I61&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K61" s="2">
-        <f>-I61</f>
+        <f t="shared" si="8"/>
         <v>4.1912711049100437E-2</v>
       </c>
       <c r="L61" t="b">
-        <f>K61&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N61">
@@ -18130,23 +18368,23 @@
         <v>-8.9384917150364398</v>
       </c>
       <c r="H62">
-        <f>ABS( D62-F62)</f>
+        <f t="shared" si="5"/>
         <v>5.6354291015919822E-4</v>
       </c>
       <c r="I62" s="2">
-        <f>G62-E62</f>
+        <f t="shared" si="6"/>
         <v>-1.0473456250803537E-3</v>
       </c>
       <c r="J62" t="b">
-        <f>I62&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K62" s="2">
-        <f>-I62</f>
+        <f t="shared" si="8"/>
         <v>1.0473456250803537E-3</v>
       </c>
       <c r="L62" t="b">
-        <f>K62&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N62">
@@ -18185,23 +18423,23 @@
         <v>-9.9552241575156799</v>
       </c>
       <c r="H63">
-        <f>ABS( D63-F63)</f>
+        <f t="shared" si="5"/>
         <v>1.1239060218820006E-3</v>
       </c>
       <c r="I63" s="2">
-        <f>G63-E63</f>
+        <f t="shared" si="6"/>
         <v>3.4944190118206819E-3</v>
       </c>
       <c r="J63" t="b">
-        <f>I63&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <f>-I63</f>
+        <f t="shared" si="8"/>
         <v>-3.4944190118206819E-3</v>
       </c>
       <c r="L63" t="b">
-        <f>K63&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N63">
@@ -18240,23 +18478,23 @@
         <v>-14.754617308416799</v>
       </c>
       <c r="H64">
-        <f>ABS( D64-F64)</f>
+        <f t="shared" si="5"/>
         <v>7.1787649099901985E-3</v>
       </c>
       <c r="I64" s="2">
-        <f>G64-E64</f>
+        <f t="shared" si="6"/>
         <v>-3.0038350035299644E-2</v>
       </c>
       <c r="J64" t="b">
-        <f>I64&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K64" s="2">
-        <f>-I64</f>
+        <f t="shared" si="8"/>
         <v>3.0038350035299644E-2</v>
       </c>
       <c r="L64" t="b">
-        <f>K64&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="N64">
@@ -18295,23 +18533,23 @@
         <v>-12.658891236582299</v>
       </c>
       <c r="H65">
-        <f>ABS( D65-F65)</f>
+        <f t="shared" si="5"/>
         <v>1.0759053253569517E-3</v>
       </c>
       <c r="I65" s="2">
-        <f>G65-E65</f>
+        <f t="shared" si="6"/>
         <v>-5.3551225825998472E-3</v>
       </c>
       <c r="J65" t="b">
-        <f>I65&gt;0.01</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K65" s="2">
-        <f>-I65</f>
+        <f t="shared" si="8"/>
         <v>5.3551225825998472E-3</v>
       </c>
       <c r="L65" t="b">
-        <f>K65&gt;0.01</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N65">
@@ -18350,23 +18588,23 @@
         <v>-7.4955215543264302</v>
       </c>
       <c r="H66">
-        <f>ABS( D66-F66)</f>
+        <f t="shared" ref="H66:H100" si="10">ABS( D66-F66)</f>
         <v>3.2880205989299638E-4</v>
       </c>
       <c r="I66" s="2">
-        <f>G66-E66</f>
+        <f t="shared" ref="I66:I100" si="11">G66-E66</f>
         <v>-1.3236755571011116E-4</v>
       </c>
       <c r="J66" t="b">
-        <f>I66&gt;0.01</f>
+        <f t="shared" ref="J66:J97" si="12">I66&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="K66" s="2">
-        <f>-I66</f>
+        <f t="shared" ref="K66:K100" si="13">-I66</f>
         <v>1.3236755571011116E-4</v>
       </c>
       <c r="L66" t="b">
-        <f>K66&gt;0.01</f>
+        <f t="shared" ref="L66:L97" si="14">K66&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="N66">
@@ -18405,23 +18643,23 @@
         <v>-16.771366549927201</v>
       </c>
       <c r="H67">
-        <f>ABS( D67-F67)</f>
+        <f t="shared" si="10"/>
         <v>5.9620417646200075E-4</v>
       </c>
       <c r="I67" s="2">
-        <f>G67-E67</f>
+        <f t="shared" si="11"/>
         <v>-2.2853306241010785E-3</v>
       </c>
       <c r="J67" t="b">
-        <f>I67&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K67" s="2">
-        <f>-I67</f>
+        <f t="shared" si="13"/>
         <v>2.2853306241010785E-3</v>
       </c>
       <c r="L67" t="b">
-        <f>K67&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N67">
@@ -18460,23 +18698,23 @@
         <v>-12.9424957752393</v>
       </c>
       <c r="H68">
-        <f>ABS( D68-F68)</f>
+        <f t="shared" si="10"/>
         <v>1.2797398102580987E-3</v>
       </c>
       <c r="I68" s="2">
-        <f>G68-E68</f>
+        <f t="shared" si="11"/>
         <v>4.5007239551999589E-3</v>
       </c>
       <c r="J68" t="b">
-        <f>I68&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K68" s="2">
-        <f>-I68</f>
+        <f t="shared" si="13"/>
         <v>-4.5007239551999589E-3</v>
       </c>
       <c r="L68" t="b">
-        <f>K68&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N68">
@@ -18515,23 +18753,23 @@
         <v>-10.540648418941</v>
       </c>
       <c r="H69">
-        <f>ABS( D69-F69)</f>
+        <f t="shared" si="10"/>
         <v>4.2600827901516022E-4</v>
       </c>
       <c r="I69" s="2">
-        <f>G69-E69</f>
+        <f t="shared" si="11"/>
         <v>-9.7124191199782217E-5</v>
       </c>
       <c r="J69" t="b">
-        <f>I69&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K69" s="2">
-        <f>-I69</f>
+        <f t="shared" si="13"/>
         <v>9.7124191199782217E-5</v>
       </c>
       <c r="L69" t="b">
-        <f>K69&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N69">
@@ -18570,23 +18808,23 @@
         <v>-11.654183728841801</v>
       </c>
       <c r="H70">
-        <f>ABS( D70-F70)</f>
+        <f t="shared" si="10"/>
         <v>4.424814869359861E-4</v>
       </c>
       <c r="I70" s="2">
-        <f>G70-E70</f>
+        <f t="shared" si="11"/>
         <v>4.1244252429883943E-4</v>
       </c>
       <c r="J70" t="b">
-        <f>I70&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K70" s="2">
-        <f>-I70</f>
+        <f t="shared" si="13"/>
         <v>-4.1244252429883943E-4</v>
       </c>
       <c r="L70" t="b">
-        <f>K70&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N70">
@@ -18625,23 +18863,23 @@
         <v>-13.0166737759788</v>
       </c>
       <c r="H71">
-        <f>ABS( D71-F71)</f>
+        <f t="shared" si="10"/>
         <v>1.8706833309800608E-4</v>
       </c>
       <c r="I71" s="2">
-        <f>G71-E71</f>
+        <f t="shared" si="11"/>
         <v>3.864694234998467E-4</v>
       </c>
       <c r="J71" t="b">
-        <f>I71&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K71" s="2">
-        <f>-I71</f>
+        <f t="shared" si="13"/>
         <v>-3.864694234998467E-4</v>
       </c>
       <c r="L71" t="b">
-        <f>K71&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N71">
@@ -18680,23 +18918,23 @@
         <v>-12.831704875113999</v>
       </c>
       <c r="H72">
-        <f>ABS( D72-F72)</f>
+        <f t="shared" si="10"/>
         <v>5.8285668745139754E-4</v>
       </c>
       <c r="I72" s="2">
-        <f>G72-E72</f>
+        <f t="shared" si="11"/>
         <v>6.0520483870085684E-4</v>
       </c>
       <c r="J72" t="b">
-        <f>I72&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K72" s="2">
-        <f>-I72</f>
+        <f t="shared" si="13"/>
         <v>-6.0520483870085684E-4</v>
       </c>
       <c r="L72" t="b">
-        <f>K72&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N72">
@@ -18735,23 +18973,23 @@
         <v>-7.7636354852889697</v>
       </c>
       <c r="H73">
-        <f>ABS( D73-F73)</f>
+        <f t="shared" si="10"/>
         <v>2.4101311546098625E-4</v>
       </c>
       <c r="I73" s="2">
-        <f>G73-E73</f>
+        <f t="shared" si="11"/>
         <v>2.2361226145051205E-4</v>
       </c>
       <c r="J73" t="b">
-        <f>I73&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K73" s="2">
-        <f>-I73</f>
+        <f t="shared" si="13"/>
         <v>-2.2361226145051205E-4</v>
       </c>
       <c r="L73" t="b">
-        <f>K73&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N73">
@@ -18790,23 +19028,23 @@
         <v>-13.473180416664199</v>
       </c>
       <c r="H74">
-        <f>ABS( D74-F74)</f>
+        <f t="shared" si="10"/>
         <v>1.818840841567998E-4</v>
       </c>
       <c r="I74" s="2">
-        <f>G74-E74</f>
+        <f t="shared" si="11"/>
         <v>-1.0174921670014214E-4</v>
       </c>
       <c r="J74" t="b">
-        <f>I74&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K74" s="2">
-        <f>-I74</f>
+        <f t="shared" si="13"/>
         <v>1.0174921670014214E-4</v>
       </c>
       <c r="L74" t="b">
-        <f>K74&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N74">
@@ -18845,23 +19083,23 @@
         <v>-10.505126089929201</v>
       </c>
       <c r="H75">
-        <f>ABS( D75-F75)</f>
+        <f t="shared" si="10"/>
         <v>1.5132698448020072E-4</v>
       </c>
       <c r="I75" s="2">
-        <f>G75-E75</f>
+        <f t="shared" si="11"/>
         <v>2.8575568999045231E-5</v>
       </c>
       <c r="J75" t="b">
-        <f>I75&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K75" s="2">
-        <f>-I75</f>
+        <f t="shared" si="13"/>
         <v>-2.8575568999045231E-5</v>
       </c>
       <c r="L75" t="b">
-        <f>K75&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N75">
@@ -18900,23 +19138,23 @@
         <v>-9.0716170012899493</v>
       </c>
       <c r="H76">
-        <f>ABS( D76-F76)</f>
+        <f t="shared" si="10"/>
         <v>8.7228501203309716E-5</v>
       </c>
       <c r="I76" s="2">
-        <f>G76-E76</f>
+        <f t="shared" si="11"/>
         <v>5.2372957339841264E-5</v>
       </c>
       <c r="J76" t="b">
-        <f>I76&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K76" s="2">
-        <f>-I76</f>
+        <f t="shared" si="13"/>
         <v>-5.2372957339841264E-5</v>
       </c>
       <c r="L76" t="b">
-        <f>K76&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N76">
@@ -18955,23 +19193,23 @@
         <v>-9.6664049019514398</v>
       </c>
       <c r="H77">
-        <f>ABS( D77-F77)</f>
+        <f t="shared" si="10"/>
         <v>5.6256061973014582E-5</v>
       </c>
       <c r="I77" s="2">
-        <f>G77-E77</f>
+        <f t="shared" si="11"/>
         <v>-6.1349649669750761E-5</v>
       </c>
       <c r="J77" t="b">
-        <f>I77&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K77" s="2">
-        <f>-I77</f>
+        <f t="shared" si="13"/>
         <v>6.1349649669750761E-5</v>
       </c>
       <c r="L77" t="b">
-        <f>K77&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N77">
@@ -19010,23 +19248,23 @@
         <v>-10.627371280846701</v>
       </c>
       <c r="H78">
-        <f>ABS( D78-F78)</f>
+        <f t="shared" si="10"/>
         <v>9.8717793177347966E-4</v>
       </c>
       <c r="I78" s="2">
-        <f>G78-E78</f>
+        <f t="shared" si="11"/>
         <v>1.4205796454991315E-3</v>
       </c>
       <c r="J78" t="b">
-        <f>I78&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K78" s="2">
-        <f>-I78</f>
+        <f t="shared" si="13"/>
         <v>-1.4205796454991315E-3</v>
       </c>
       <c r="L78" t="b">
-        <f>K78&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N78">
@@ -19065,23 +19303,23 @@
         <v>-8.7141102925240492</v>
       </c>
       <c r="H79">
-        <f>ABS( D79-F79)</f>
+        <f t="shared" si="10"/>
         <v>2.8957146110869803E-3</v>
       </c>
       <c r="I79" s="2">
-        <f>G79-E79</f>
+        <f t="shared" si="11"/>
         <v>-1.6586794356689083E-2</v>
       </c>
       <c r="J79" t="b">
-        <f>I79&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K79" s="2">
-        <f>-I79</f>
+        <f t="shared" si="13"/>
         <v>1.6586794356689083E-2</v>
       </c>
       <c r="L79" t="b">
-        <f>K79&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N79">
@@ -19120,23 +19358,23 @@
         <v>-7.7522115328154699</v>
       </c>
       <c r="H80">
-        <f>ABS( D80-F80)</f>
+        <f t="shared" si="10"/>
         <v>1.0528577933520133E-3</v>
       </c>
       <c r="I80" s="2">
-        <f>G80-E80</f>
+        <f t="shared" si="11"/>
         <v>-4.1091036869200792E-3</v>
       </c>
       <c r="J80" t="b">
-        <f>I80&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K80" s="2">
-        <f>-I80</f>
+        <f t="shared" si="13"/>
         <v>4.1091036869200792E-3</v>
       </c>
       <c r="L80" t="b">
-        <f>K80&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N80">
@@ -19175,23 +19413,23 @@
         <v>-8.4380800388891792</v>
       </c>
       <c r="H81">
-        <f>ABS( D81-F81)</f>
+        <f t="shared" si="10"/>
         <v>1.2225366676860139E-3</v>
       </c>
       <c r="I81" s="2">
-        <f>G81-E81</f>
+        <f t="shared" si="11"/>
         <v>9.5199150890703521E-3</v>
       </c>
       <c r="J81" t="b">
-        <f>I81&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K81" s="2">
-        <f>-I81</f>
+        <f t="shared" si="13"/>
         <v>-9.5199150890703521E-3</v>
       </c>
       <c r="L81" t="b">
-        <f>K81&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N81">
@@ -19230,23 +19468,23 @@
         <v>-10.456775194285401</v>
       </c>
       <c r="H82">
-        <f>ABS( D82-F82)</f>
+        <f t="shared" si="10"/>
         <v>7.9254633533409891E-4</v>
       </c>
       <c r="I82" s="2">
-        <f>G82-E82</f>
+        <f t="shared" si="11"/>
         <v>1.0845593930994823E-3</v>
       </c>
       <c r="J82" t="b">
-        <f>I82&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K82" s="2">
-        <f>-I82</f>
+        <f t="shared" si="13"/>
         <v>-1.0845593930994823E-3</v>
       </c>
       <c r="L82" t="b">
-        <f>K82&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N82">
@@ -19285,23 +19523,23 @@
         <v>-7.2479010651662898</v>
       </c>
       <c r="H83">
-        <f>ABS( D83-F83)</f>
+        <f t="shared" si="10"/>
         <v>2.0293058136250375E-3</v>
       </c>
       <c r="I83" s="2">
-        <f>G83-E83</f>
+        <f t="shared" si="11"/>
         <v>8.0419662201105524E-3</v>
       </c>
       <c r="J83" t="b">
-        <f>I83&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K83" s="2">
-        <f>-I83</f>
+        <f t="shared" si="13"/>
         <v>-8.0419662201105524E-3</v>
       </c>
       <c r="L83" t="b">
-        <f>K83&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N83">
@@ -19340,23 +19578,23 @@
         <v>-10.003644497282099</v>
       </c>
       <c r="H84">
-        <f>ABS( D84-F84)</f>
+        <f t="shared" si="10"/>
         <v>7.1943461450096891E-4</v>
       </c>
       <c r="I84" s="2">
-        <f>G84-E84</f>
+        <f t="shared" si="11"/>
         <v>5.6270075559972099E-4</v>
       </c>
       <c r="J84" t="b">
-        <f>I84&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K84" s="2">
-        <f>-I84</f>
+        <f t="shared" si="13"/>
         <v>-5.6270075559972099E-4</v>
       </c>
       <c r="L84" t="b">
-        <f>K84&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N84">
@@ -19395,23 +19633,23 @@
         <v>-7.1159201082606502</v>
       </c>
       <c r="H85">
-        <f>ABS( D85-F85)</f>
+        <f t="shared" si="10"/>
         <v>0.75337540493225441</v>
       </c>
       <c r="I85" s="2">
-        <f>G85-E85</f>
+        <f t="shared" si="11"/>
         <v>0.28603660015236976</v>
       </c>
       <c r="J85" t="b">
-        <f>I85&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K85" s="2">
-        <f>-I85</f>
+        <f t="shared" si="13"/>
         <v>-0.28603660015236976</v>
       </c>
       <c r="L85" t="b">
-        <f>K85&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N85">
@@ -19450,23 +19688,23 @@
         <v>-7.6269573471758498</v>
       </c>
       <c r="H86">
-        <f>ABS( D86-F86)</f>
+        <f t="shared" si="10"/>
         <v>1.547650547620294E-4</v>
       </c>
       <c r="I86" s="2">
-        <f>G86-E86</f>
+        <f t="shared" si="11"/>
         <v>-8.3168514509956992E-5</v>
       </c>
       <c r="J86" t="b">
-        <f>I86&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K86" s="2">
-        <f>-I86</f>
+        <f t="shared" si="13"/>
         <v>8.3168514509956992E-5</v>
       </c>
       <c r="L86" t="b">
-        <f>K86&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N86">
@@ -19505,23 +19743,23 @@
         <v>-13.903859999208599</v>
       </c>
       <c r="H87">
-        <f>ABS( D87-F87)</f>
+        <f t="shared" si="10"/>
         <v>4.1706275488220257E-3</v>
       </c>
       <c r="I87" s="2">
-        <f>G87-E87</f>
+        <f t="shared" si="11"/>
         <v>-8.1652600293399047E-2</v>
       </c>
       <c r="J87" t="b">
-        <f>I87&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K87" s="2">
-        <f>-I87</f>
+        <f t="shared" si="13"/>
         <v>8.1652600293399047E-2</v>
       </c>
       <c r="L87" t="b">
-        <f>K87&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N87">
@@ -19560,23 +19798,23 @@
         <v>-7.9235021662270402</v>
       </c>
       <c r="H88">
-        <f>ABS( D88-F88)</f>
+        <f t="shared" si="10"/>
         <v>4.0420848325500858E-4</v>
       </c>
       <c r="I88" s="2">
-        <f>G88-E88</f>
+        <f t="shared" si="11"/>
         <v>4.4892453174938396E-4</v>
       </c>
       <c r="J88" t="b">
-        <f>I88&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K88" s="2">
-        <f>-I88</f>
+        <f t="shared" si="13"/>
         <v>-4.4892453174938396E-4</v>
       </c>
       <c r="L88" t="b">
-        <f>K88&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N88">
@@ -19615,23 +19853,23 @@
         <v>-11.8346865412755</v>
       </c>
       <c r="H89">
-        <f>ABS( D89-F89)</f>
+        <f t="shared" si="10"/>
         <v>1.6079601000099086E-4</v>
       </c>
       <c r="I89" s="2">
-        <f>G89-E89</f>
+        <f t="shared" si="11"/>
         <v>7.9902004099352553E-5</v>
       </c>
       <c r="J89" t="b">
-        <f>I89&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K89" s="2">
-        <f>-I89</f>
+        <f t="shared" si="13"/>
         <v>-7.9902004099352553E-5</v>
       </c>
       <c r="L89" t="b">
-        <f>K89&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N89">
@@ -19670,23 +19908,23 @@
         <v>-6.9269461147336404</v>
       </c>
       <c r="H90">
-        <f>ABS( D90-F90)</f>
+        <f t="shared" si="10"/>
         <v>1.4624013830875915E-3</v>
       </c>
       <c r="I90" s="2">
-        <f>G90-E90</f>
+        <f t="shared" si="11"/>
         <v>-1.5877545014202354E-3</v>
       </c>
       <c r="J90" t="b">
-        <f>I90&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K90" s="2">
-        <f>-I90</f>
+        <f t="shared" si="13"/>
         <v>1.5877545014202354E-3</v>
       </c>
       <c r="L90" t="b">
-        <f>K90&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N90">
@@ -19725,23 +19963,23 @@
         <v>-8.00259400437597</v>
       </c>
       <c r="H91">
-        <f>ABS( D91-F91)</f>
+        <f t="shared" si="10"/>
         <v>1.9226736531197108E-4</v>
       </c>
       <c r="I91" s="2">
-        <f>G91-E91</f>
+        <f t="shared" si="11"/>
         <v>1.0430137431072239E-4</v>
       </c>
       <c r="J91" t="b">
-        <f>I91&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K91" s="2">
-        <f>-I91</f>
+        <f t="shared" si="13"/>
         <v>-1.0430137431072239E-4</v>
       </c>
       <c r="L91" t="b">
-        <f>K91&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N91">
@@ -19780,23 +20018,23 @@
         <v>-4.5921412533408601</v>
       </c>
       <c r="H92">
-        <f>ABS( D92-F92)</f>
+        <f t="shared" si="10"/>
         <v>1.3080665586022999E-3</v>
       </c>
       <c r="I92" s="2">
-        <f>G92-E92</f>
+        <f t="shared" si="11"/>
         <v>4.3222836724101654E-3</v>
       </c>
       <c r="J92" t="b">
-        <f>I92&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K92" s="2">
-        <f>-I92</f>
+        <f t="shared" si="13"/>
         <v>-4.3222836724101654E-3</v>
       </c>
       <c r="L92" t="b">
-        <f>K92&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N92">
@@ -19835,23 +20073,23 @@
         <v>-6.8328369003666696</v>
       </c>
       <c r="H93">
-        <f>ABS( D93-F93)</f>
+        <f t="shared" si="10"/>
         <v>0.80785336763747551</v>
       </c>
       <c r="I93" s="2">
-        <f>G93-E93</f>
+        <f t="shared" si="11"/>
         <v>0.4144348995792404</v>
       </c>
       <c r="J93" t="b">
-        <f>I93&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K93" s="2">
-        <f>-I93</f>
+        <f t="shared" si="13"/>
         <v>-0.4144348995792404</v>
       </c>
       <c r="L93" t="b">
-        <f>K93&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N93">
@@ -19890,23 +20128,23 @@
         <v>-13.9777516206026</v>
       </c>
       <c r="H94">
-        <f>ABS( D94-F94)</f>
+        <f t="shared" si="10"/>
         <v>2.0593268307056434E-5</v>
       </c>
       <c r="I94" s="2">
-        <f>G94-E94</f>
+        <f t="shared" si="11"/>
         <v>-1.0488608399583654E-5</v>
       </c>
       <c r="J94" t="b">
-        <f>I94&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K94" s="2">
-        <f>-I94</f>
+        <f t="shared" si="13"/>
         <v>1.0488608399583654E-5</v>
       </c>
       <c r="L94" t="b">
-        <f>K94&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N94">
@@ -19945,23 +20183,23 @@
         <v>-5.3279560663018</v>
       </c>
       <c r="H95">
-        <f>ABS( D95-F95)</f>
+        <f t="shared" si="10"/>
         <v>3.3454848806399595E-4</v>
       </c>
       <c r="I95" s="2">
-        <f>G95-E95</f>
+        <f t="shared" si="11"/>
         <v>8.062070674501598E-4</v>
       </c>
       <c r="J95" t="b">
-        <f>I95&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K95" s="2">
-        <f>-I95</f>
+        <f t="shared" si="13"/>
         <v>-8.062070674501598E-4</v>
       </c>
       <c r="L95" t="b">
-        <f>K95&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N95">
@@ -20000,23 +20238,23 @@
         <v>-7.2353166464645797</v>
       </c>
       <c r="H96">
-        <f>ABS( D96-F96)</f>
+        <f t="shared" si="10"/>
         <v>1.0418914822259845E-4</v>
       </c>
       <c r="I96" s="2">
-        <f>G96-E96</f>
+        <f t="shared" si="11"/>
         <v>3.2352001400504093E-5</v>
       </c>
       <c r="J96" t="b">
-        <f>I96&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K96" s="2">
-        <f>-I96</f>
+        <f t="shared" si="13"/>
         <v>-3.2352001400504093E-5</v>
       </c>
       <c r="L96" t="b">
-        <f>K96&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N96">
@@ -20055,23 +20293,23 @@
         <v>-13.402903839742001</v>
       </c>
       <c r="H97">
-        <f>ABS( D97-F97)</f>
+        <f t="shared" si="10"/>
         <v>1.6235484589222048E-3</v>
       </c>
       <c r="I97" s="2">
-        <f>G97-E97</f>
+        <f t="shared" si="11"/>
         <v>-3.6065344658009479E-3</v>
       </c>
       <c r="J97" t="b">
-        <f>I97&gt;0.01</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K97" s="2">
-        <f>-I97</f>
+        <f t="shared" si="13"/>
         <v>3.6065344658009479E-3</v>
       </c>
       <c r="L97" t="b">
-        <f>K97&gt;0.01</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N97">
@@ -20110,23 +20348,23 @@
         <v>-10.511385740089199</v>
       </c>
       <c r="H98">
-        <f>ABS( D98-F98)</f>
+        <f t="shared" si="10"/>
         <v>7.1672090047170123E-4</v>
       </c>
       <c r="I98" s="2">
-        <f>G98-E98</f>
+        <f t="shared" si="11"/>
         <v>2.326843510012111E-4</v>
       </c>
       <c r="J98" t="b">
-        <f>I98&gt;0.01</f>
+        <f t="shared" ref="J98:J129" si="15">I98&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="K98" s="2">
-        <f>-I98</f>
+        <f t="shared" si="13"/>
         <v>-2.326843510012111E-4</v>
       </c>
       <c r="L98" t="b">
-        <f>K98&gt;0.01</f>
+        <f t="shared" ref="L98:L129" si="16">K98&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="N98">
@@ -20165,23 +20403,23 @@
         <v>-5.8761116927439003</v>
       </c>
       <c r="H99">
-        <f>ABS( D99-F99)</f>
+        <f t="shared" si="10"/>
         <v>8.288287310530551E-4</v>
       </c>
       <c r="I99" s="2">
-        <f>G99-E99</f>
+        <f t="shared" si="11"/>
         <v>8.068100349793994E-4</v>
       </c>
       <c r="J99" t="b">
-        <f>I99&gt;0.01</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K99" s="2">
-        <f>-I99</f>
+        <f t="shared" si="13"/>
         <v>-8.068100349793994E-4</v>
       </c>
       <c r="L99" t="b">
-        <f>K99&gt;0.01</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N99">
@@ -20220,23 +20458,23 @@
         <v>-7.0094491569413204</v>
       </c>
       <c r="H100">
-        <f>ABS( D100-F100)</f>
+        <f t="shared" si="10"/>
         <v>1.48361487741E-4</v>
       </c>
       <c r="I100" s="2">
-        <f>G100-E100</f>
+        <f t="shared" si="11"/>
         <v>2.2623776849250987E-5</v>
       </c>
       <c r="J100" t="b">
-        <f>I100&gt;0.01</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="K100" s="2">
-        <f>-I100</f>
+        <f t="shared" si="13"/>
         <v>-2.2623776849250987E-5</v>
       </c>
       <c r="L100" t="b">
-        <f>K100&gt;0.01</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N100">
@@ -20257,11 +20495,11 @@
     </row>
     <row r="101" spans="2:18">
       <c r="B101">
-        <f t="shared" ref="B101:C101" si="0">AVERAGE(B2:B100)</f>
+        <f t="shared" ref="B101:C101" si="17">AVERAGE(B2:B100)</f>
         <v>62.040404040404042</v>
       </c>
       <c r="C101">
-        <f t="shared" si="0"/>
+        <f t="shared" si="17"/>
         <v>49.969696969696969</v>
       </c>
     </row>
@@ -20278,8 +20516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068CC066-B5F7-4566-9AAF-08CA4708021F}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20289,10 +20527,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="K1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -20319,7 +20557,7 @@
         <v>0.18987336658420162</v>
       </c>
       <c r="H2" t="b">
-        <f>G2&gt;0.01</f>
+        <f t="shared" ref="H2:H33" si="0">G2&gt;0.01</f>
         <v>1</v>
       </c>
       <c r="J2">
@@ -20352,11 +20590,11 @@
         <v>-32.186359075555899</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="0">F3-D3</f>
+        <f t="shared" ref="G3:G66" si="1">F3-D3</f>
         <v>-4.3337819891959839E-3</v>
       </c>
       <c r="H3" t="b">
-        <f>G3&gt;0.01</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3">
@@ -20389,11 +20627,11 @@
         <v>-16.991885690248498</v>
       </c>
       <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.4744546934970515E-3</v>
+      </c>
+      <c r="H4" t="b">
         <f t="shared" si="0"/>
-        <v>-1.4744546934970515E-3</v>
-      </c>
-      <c r="H4" t="b">
-        <f>G4&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J4">
@@ -20426,11 +20664,11 @@
         <v>-23.1278013361548</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.2740719990087541E-4</v>
+      </c>
+      <c r="H5" t="b">
         <f t="shared" si="0"/>
-        <v>-3.2740719990087541E-4</v>
-      </c>
-      <c r="H5" t="b">
-        <f>G5&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J5">
@@ -20463,11 +20701,11 @@
         <v>-26.6573500318657</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.2117696640799238E-2</v>
+      </c>
+      <c r="H6" t="b">
         <f t="shared" si="0"/>
-        <v>-5.2117696640799238E-2</v>
-      </c>
-      <c r="H6" t="b">
-        <f>G6&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J6">
@@ -20500,11 +20738,11 @@
         <v>-23.725373389749901</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>0.15162303447209879</v>
+      </c>
+      <c r="H7" t="b">
         <f t="shared" si="0"/>
-        <v>0.15162303447209879</v>
-      </c>
-      <c r="H7" t="b">
-        <f>G7&gt;0.01</f>
         <v>1</v>
       </c>
       <c r="J7">
@@ -20537,11 +20775,11 @@
         <v>-26.001519516633302</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.9047276906801756E-2</v>
+      </c>
+      <c r="H8" t="b">
         <f t="shared" si="0"/>
-        <v>-2.9047276906801756E-2</v>
-      </c>
-      <c r="H8" t="b">
-        <f>G8&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J8">
@@ -20574,11 +20812,11 @@
         <v>-21.075741144642699</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>4.0990223300028106E-3</v>
+      </c>
+      <c r="H9" t="b">
         <f t="shared" si="0"/>
-        <v>4.0990223300028106E-3</v>
-      </c>
-      <c r="H9" t="b">
-        <f>G9&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J9">
@@ -20611,11 +20849,11 @@
         <v>-20.930650544376601</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>4.960112899965452E-6</v>
+      </c>
+      <c r="H10" t="b">
         <f t="shared" si="0"/>
-        <v>4.960112899965452E-6</v>
-      </c>
-      <c r="H10" t="b">
-        <f>G10&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J10">
@@ -20648,11 +20886,11 @@
         <v>-14.8656184531197</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0746115320035017E-4</v>
+      </c>
+      <c r="H11" t="b">
         <f t="shared" si="0"/>
-        <v>3.0746115320035017E-4</v>
-      </c>
-      <c r="H11" t="b">
-        <f>G11&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J11">
@@ -20685,11 +20923,11 @@
         <v>-20.3022933967247</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.6235238040991362E-3</v>
+      </c>
+      <c r="H12" t="b">
         <f t="shared" si="0"/>
-        <v>1.6235238040991362E-3</v>
-      </c>
-      <c r="H12" t="b">
-        <f>G12&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J12">
@@ -20722,11 +20960,11 @@
         <v>-35.349808159542803</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.9477929690008295E-3</v>
+      </c>
+      <c r="H13" t="b">
         <f t="shared" si="0"/>
-        <v>-3.9477929690008295E-3</v>
-      </c>
-      <c r="H13" t="b">
-        <f>G13&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J13">
@@ -20759,11 +20997,11 @@
         <v>-19.942818108396299</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.4452514030978136E-3</v>
+      </c>
+      <c r="H14" t="b">
         <f t="shared" si="0"/>
-        <v>-1.4452514030978136E-3</v>
-      </c>
-      <c r="H14" t="b">
-        <f>G14&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J14">
@@ -20796,11 +21034,11 @@
         <v>-16.588303641783799</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>1.0987917043010498E-3</v>
+      </c>
+      <c r="H15" t="b">
         <f t="shared" si="0"/>
-        <v>1.0987917043010498E-3</v>
-      </c>
-      <c r="H15" t="b">
-        <f>G15&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J15">
@@ -20833,11 +21071,11 @@
         <v>-35.358155068390097</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.21076612494760383</v>
+      </c>
+      <c r="H16" t="b">
         <f t="shared" si="0"/>
-        <v>0.21076612494760383</v>
-      </c>
-      <c r="H16" t="b">
-        <f>G16&gt;0.01</f>
         <v>1</v>
       </c>
       <c r="J16">
@@ -20870,11 +21108,11 @@
         <v>-25.830723607566799</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.538428033899919E-3</v>
+      </c>
+      <c r="H17" t="b">
         <f t="shared" si="0"/>
-        <v>1.538428033899919E-3</v>
-      </c>
-      <c r="H17" t="b">
-        <f>G17&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J17">
@@ -20907,11 +21145,11 @@
         <v>-18.390520364494002</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.4253998000034471E-4</v>
+      </c>
+      <c r="H18" t="b">
         <f t="shared" si="0"/>
-        <v>-2.4253998000034471E-4</v>
-      </c>
-      <c r="H18" t="b">
-        <f>G18&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J18">
@@ -20944,11 +21182,11 @@
         <v>-21.191728830313799</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>4.4926156841995635E-3</v>
+      </c>
+      <c r="H19" t="b">
         <f t="shared" si="0"/>
-        <v>4.4926156841995635E-3</v>
-      </c>
-      <c r="H19" t="b">
-        <f>G19&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J19">
@@ -20981,11 +21219,11 @@
         <v>-18.542358371536</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.8038856080601988E-2</v>
+      </c>
+      <c r="H20" t="b">
         <f t="shared" si="0"/>
-        <v>-4.8038856080601988E-2</v>
-      </c>
-      <c r="H20" t="b">
-        <f>G20&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J20">
@@ -21018,11 +21256,11 @@
         <v>-28.650826656870201</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>-7.5936876996401281E-2</v>
+      </c>
+      <c r="H21" t="b">
         <f t="shared" si="0"/>
-        <v>-7.5936876996401281E-2</v>
-      </c>
-      <c r="H21" t="b">
-        <f>G21&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J21">
@@ -21055,11 +21293,11 @@
         <v>-23.9028718885633</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8616116670081624E-4</v>
+      </c>
+      <c r="H22" t="b">
         <f t="shared" si="0"/>
-        <v>8.8616116670081624E-4</v>
-      </c>
-      <c r="H22" t="b">
-        <f>G22&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J22">
@@ -21092,11 +21330,11 @@
         <v>-24.672397102889601</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.2437142300051391E-5</v>
+      </c>
+      <c r="H23" t="b">
         <f t="shared" si="0"/>
-        <v>-8.2437142300051391E-5</v>
-      </c>
-      <c r="H23" t="b">
-        <f>G23&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J23">
@@ -21129,11 +21367,11 @@
         <v>-20.707504790866501</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>1.226312240298455E-3</v>
+      </c>
+      <c r="H24" t="b">
         <f t="shared" si="0"/>
-        <v>1.226312240298455E-3</v>
-      </c>
-      <c r="H24" t="b">
-        <f>G24&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J24">
@@ -21166,11 +21404,11 @@
         <v>-12.054476123219599</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>3.0414070018025541E-7</v>
+      </c>
+      <c r="H25" t="b">
         <f t="shared" si="0"/>
-        <v>3.0414070018025541E-7</v>
-      </c>
-      <c r="H25" t="b">
-        <f>G25&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J25">
@@ -21203,11 +21441,11 @@
         <v>-25.042172431022401</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.2203413578990592E-3</v>
+      </c>
+      <c r="H26" t="b">
         <f t="shared" si="0"/>
-        <v>-3.2203413578990592E-3</v>
-      </c>
-      <c r="H26" t="b">
-        <f>G26&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -21240,11 +21478,11 @@
         <v>-21.145726378596599</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2142117030176109E-4</v>
+      </c>
+      <c r="H27" t="b">
         <f t="shared" si="0"/>
-        <v>3.2142117030176109E-4</v>
-      </c>
-      <c r="H27" t="b">
-        <f>G27&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J27">
@@ -21277,11 +21515,11 @@
         <v>-15.0039353864359</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>7.3814248939996219E-4</v>
+      </c>
+      <c r="H28" t="b">
         <f t="shared" si="0"/>
-        <v>7.3814248939996219E-4</v>
-      </c>
-      <c r="H28" t="b">
-        <f>G28&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J28">
@@ -21314,11 +21552,11 @@
         <v>-29.117202741444501</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.2062927084960009</v>
+      </c>
+      <c r="H29" t="b">
         <f t="shared" si="0"/>
-        <v>-0.2062927084960009</v>
-      </c>
-      <c r="H29" t="b">
-        <f>G29&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J29">
@@ -21351,11 +21589,11 @@
         <v>-21.388450177236098</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>2.7709851580226541E-4</v>
+      </c>
+      <c r="H30" t="b">
         <f t="shared" si="0"/>
-        <v>2.7709851580226541E-4</v>
-      </c>
-      <c r="H30" t="b">
-        <f>G30&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J30">
@@ -21388,11 +21626,11 @@
         <v>-29.758086109989399</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>-0.2263213893922007</v>
+      </c>
+      <c r="H31" t="b">
         <f t="shared" si="0"/>
-        <v>-0.2263213893922007</v>
-      </c>
-      <c r="H31" t="b">
-        <f>G31&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J31">
@@ -21425,11 +21663,11 @@
         <v>-17.560999618136801</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>3.40557450197565E-4</v>
+      </c>
+      <c r="H32" t="b">
         <f t="shared" si="0"/>
-        <v>3.40557450197565E-4</v>
-      </c>
-      <c r="H32" t="b">
-        <f>G32&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J32">
@@ -21462,11 +21700,11 @@
         <v>-21.936351484096999</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3935379014995419E-3</v>
+      </c>
+      <c r="H33" t="b">
         <f t="shared" si="0"/>
-        <v>1.3935379014995419E-3</v>
-      </c>
-      <c r="H33" t="b">
-        <f>G33&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J33">
@@ -21499,11 +21737,11 @@
         <v>-29.6766797382232</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.26794796857780057</v>
       </c>
       <c r="H34" t="b">
-        <f>G34&gt;0.01</f>
+        <f t="shared" ref="H34:H65" si="2">G34&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J34">
@@ -21536,11 +21774,11 @@
         <v>-22.747873001242102</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.3560115696596995E-5</v>
       </c>
       <c r="H35" t="b">
-        <f>G35&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J35">
@@ -21573,11 +21811,11 @@
         <v>-29.8038095129467</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.1029765415099746E-2</v>
       </c>
       <c r="H36" t="b">
-        <f>G36&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36">
@@ -21610,11 +21848,11 @@
         <v>-35.849357147906503</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21894159740779884</v>
       </c>
       <c r="H37" t="b">
-        <f>G37&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J37">
@@ -21647,11 +21885,11 @@
         <v>-27.1534746913715</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5668321756017178E-3</v>
       </c>
       <c r="H38" t="b">
-        <f>G38&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38">
@@ -21684,11 +21922,11 @@
         <v>-17.249212854564899</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.3089856452974686E-3</v>
       </c>
       <c r="H39" t="b">
-        <f>G39&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39">
@@ -21721,11 +21959,11 @@
         <v>-19.5069566916643</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.5763103095984832E-3</v>
       </c>
       <c r="H40" t="b">
-        <f>G40&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40">
@@ -21758,11 +21996,11 @@
         <v>-20.606609815613702</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.1738940474102009E-2</v>
       </c>
       <c r="H41" t="b">
-        <f>G41&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41">
@@ -21795,11 +22033,11 @@
         <v>-38.230113997609401</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.37730872157789719</v>
       </c>
       <c r="H42" t="b">
-        <f>G42&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -21832,11 +22070,11 @@
         <v>-30.490113578101099</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0685506303101278E-2</v>
       </c>
       <c r="H43" t="b">
-        <f>G43&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J43">
@@ -21869,11 +22107,11 @@
         <v>-18.543994515556498</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.582466927199988E-3</v>
       </c>
       <c r="H44" t="b">
-        <f>G44&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -21906,11 +22144,11 @@
         <v>-29.2538382595983</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.2397711149818633E-4</v>
       </c>
       <c r="H45" t="b">
-        <f>G45&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -21943,11 +22181,11 @@
         <v>-30.6908583881807</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9391090923001286E-2</v>
       </c>
       <c r="H46" t="b">
-        <f>G46&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J46">
@@ -21980,11 +22218,11 @@
         <v>-28.31853295366</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.8250136920132718E-4</v>
       </c>
       <c r="H47" t="b">
-        <f>G47&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -22017,11 +22255,11 @@
         <v>-32.013017903282702</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7434528650995844E-3</v>
       </c>
       <c r="H48" t="b">
-        <f>G48&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48">
@@ -22054,11 +22292,11 @@
         <v>-28.320101557727899</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.10897747728649776</v>
       </c>
       <c r="H49" t="b">
-        <f>G49&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -22091,11 +22329,11 @@
         <v>-26.198822247887001</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.10086693996240115</v>
       </c>
       <c r="H50" t="b">
-        <f>G50&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -22128,11 +22366,11 @@
         <v>-24.435285852851699</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.2217239900234063E-4</v>
       </c>
       <c r="H51" t="b">
-        <f>G51&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -22165,11 +22403,11 @@
         <v>-17.401843109451001</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.2934065960030807E-4</v>
       </c>
       <c r="H52" t="b">
-        <f>G52&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52">
@@ -22202,11 +22440,11 @@
         <v>-17.575943575120998</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.2129614069725001</v>
       </c>
       <c r="H53" t="b">
-        <f>G53&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -22239,11 +22477,11 @@
         <v>-26.424730821311499</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2363662430180398E-4</v>
       </c>
       <c r="H54" t="b">
-        <f>G54&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -22276,11 +22514,11 @@
         <v>-35.5938831417158</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.3447910106972927E-3</v>
       </c>
       <c r="H55" t="b">
-        <f>G55&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55">
@@ -22313,11 +22551,11 @@
         <v>-23.944499682174602</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-7.175938743150212E-2</v>
       </c>
       <c r="H56" t="b">
-        <f>G56&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56">
@@ -22350,11 +22588,11 @@
         <v>-30.9598563446987</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.29463401442760073</v>
       </c>
       <c r="H57" t="b">
-        <f>G57&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J57">
@@ -22387,11 +22625,11 @@
         <v>-25.805339948206701</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.6484562751024612E-3</v>
       </c>
       <c r="H58" t="b">
-        <f>G58&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58">
@@ -22424,11 +22662,11 @@
         <v>-35.953548944179602</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4177648989982572E-3</v>
       </c>
       <c r="H59" t="b">
-        <f>G59&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59">
@@ -22461,11 +22699,11 @@
         <v>-31.465978411662199</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.2924496099393536E-5</v>
       </c>
       <c r="H60" t="b">
-        <f>G60&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -22498,11 +22736,11 @@
         <v>-26.765404134796601</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.9047765342985485E-3</v>
       </c>
       <c r="H61" t="b">
-        <f>G61&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61">
@@ -22535,11 +22773,11 @@
         <v>-31.1756934792908</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.18553603860669909</v>
       </c>
       <c r="H62" t="b">
-        <f>G62&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62">
@@ -22572,11 +22810,11 @@
         <v>-28.927268590139199</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11185399919660099</v>
       </c>
       <c r="H63" t="b">
-        <f>G63&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J63">
@@ -22609,11 +22847,11 @@
         <v>-31.8662912959532</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.17327988486969659</v>
       </c>
       <c r="H64" t="b">
-        <f>G64&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J64">
@@ -22646,11 +22884,11 @@
         <v>-31.672175282419602</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8067602086097736E-2</v>
       </c>
       <c r="H65" t="b">
-        <f>G65&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J65">
@@ -22683,11 +22921,11 @@
         <v>-25.675397089087099</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.8401266909009451E-3</v>
       </c>
       <c r="H66" t="b">
-        <f>G66&gt;0.01</f>
+        <f t="shared" ref="H66:H97" si="3">G66&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J66">
@@ -22720,11 +22958,11 @@
         <v>-18.7091815312425</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G100" si="1">F67-D67</f>
+        <f t="shared" ref="G67:G100" si="4">F67-D67</f>
         <v>-0.33276090791460078</v>
       </c>
       <c r="H67" t="b">
-        <f>G67&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J67">
@@ -22757,11 +22995,11 @@
         <v>-31.254746648760801</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.24489386528339807</v>
       </c>
       <c r="H68" t="b">
-        <f>G68&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J68">
@@ -22794,11 +23032,11 @@
         <v>-19.790164236345198</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.815644463199817E-3</v>
       </c>
       <c r="H69" t="b">
-        <f>G69&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J69">
@@ -22831,11 +23069,11 @@
         <v>-32.096371862378398</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.3933096438696566E-2</v>
       </c>
       <c r="H70" t="b">
-        <f>G70&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -22868,11 +23106,11 @@
         <v>-34.377143890968199</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.7029184286012651E-3</v>
       </c>
       <c r="H71" t="b">
-        <f>G71&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -22905,11 +23143,11 @@
         <v>-28.467618913951</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.0204119256987951E-3</v>
       </c>
       <c r="H72" t="b">
-        <f>G72&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -22942,11 +23180,11 @@
         <v>-22.249941609000299</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.7723489069871903E-4</v>
       </c>
       <c r="H73" t="b">
-        <f>G73&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73">
@@ -22979,11 +23217,11 @@
         <v>-19.884133518333499</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.7370671770182753E-4</v>
       </c>
       <c r="H74" t="b">
-        <f>G74&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -23016,11 +23254,11 @@
         <v>-14.8739776671902</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.6132525694999345E-2</v>
       </c>
       <c r="H75" t="b">
-        <f>G75&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J75">
@@ -23053,11 +23291,11 @@
         <v>-22.653186987237302</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6624490042005391E-3</v>
       </c>
       <c r="H76" t="b">
-        <f>G76&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76">
@@ -23090,11 +23328,11 @@
         <v>-13.6636785701868</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.8830910808600478E-2</v>
       </c>
       <c r="H77" t="b">
-        <f>G77&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -23127,11 +23365,11 @@
         <v>-37.314593141976097</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6.5316921400437877E-5</v>
       </c>
       <c r="H78" t="b">
-        <f>G78&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -23164,11 +23402,11 @@
         <v>-20.275534299117801</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.2067891801972337E-3</v>
       </c>
       <c r="H79" t="b">
-        <f>G79&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -23201,11 +23439,11 @@
         <v>-26.474601415761999</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.19358346488159839</v>
       </c>
       <c r="H80" t="b">
-        <f>G80&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80">
@@ -23238,11 +23476,11 @@
         <v>-14.6436811517842</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.0839858550055794E-4</v>
       </c>
       <c r="H81" t="b">
-        <f>G81&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81">
@@ -23275,11 +23513,11 @@
         <v>-42.267506487926397</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4041393954201453E-2</v>
       </c>
       <c r="H82" t="b">
-        <f>G82&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J82">
@@ -23312,11 +23550,11 @@
         <v>-12.785432053630201</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.9395289684988057E-3</v>
       </c>
       <c r="H83" t="b">
-        <f>G83&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J83">
@@ -23349,11 +23587,11 @@
         <v>-28.422293670219499</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.856149439499859E-3</v>
       </c>
       <c r="H84" t="b">
-        <f>G84&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84">
@@ -23386,11 +23624,11 @@
         <v>-36.027393886856899</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.0545249219594552E-4</v>
       </c>
       <c r="H85" t="b">
-        <f>G85&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85">
@@ -23423,11 +23661,11 @@
         <v>-23.863775848647901</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.5410412927006121E-3</v>
       </c>
       <c r="H86" t="b">
-        <f>G86&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -23460,11 +23698,11 @@
         <v>-20.011332959060201</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.1983175466999683E-3</v>
       </c>
       <c r="H87" t="b">
-        <f>G87&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87">
@@ -23497,11 +23735,11 @@
         <v>-21.3016807408241</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6.5926285654700933E-2</v>
       </c>
       <c r="H88" t="b">
-        <f>G88&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88">
@@ -23534,11 +23772,11 @@
         <v>-26.526669320488399</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6.7426284222982247E-3</v>
       </c>
       <c r="H89" t="b">
-        <f>G89&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89">
@@ -23571,11 +23809,11 @@
         <v>-40.853938511803499</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.6076714609502005E-4</v>
       </c>
       <c r="H90" t="b">
-        <f>G90&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90">
@@ -23608,11 +23846,11 @@
         <v>-20.3410841236085</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.9680099349101567E-2</v>
       </c>
       <c r="H91" t="b">
-        <f>G91&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91">
@@ -23645,11 +23883,11 @@
         <v>-19.6369835933757</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.7014772583601854E-2</v>
       </c>
       <c r="H92" t="b">
-        <f>G92&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J92">
@@ -23682,11 +23920,11 @@
         <v>-26.1149352820286</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-8.0567517158002033E-2</v>
       </c>
       <c r="H93" t="b">
-        <f>G93&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93">
@@ -23719,11 +23957,11 @@
         <v>-16.864472708642801</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.950119978019643E-4</v>
       </c>
       <c r="H94" t="b">
-        <f>G94&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J94">
@@ -23756,11 +23994,11 @@
         <v>-19.680993284806899</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.1752051483197477E-2</v>
       </c>
       <c r="H95" t="b">
-        <f>G95&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J95">
@@ -23793,11 +24031,11 @@
         <v>-26.6896010359591</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.4594712272995025E-3</v>
       </c>
       <c r="H96" t="b">
-        <f>G96&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J96">
@@ -23830,11 +24068,11 @@
         <v>-27.648801400449301</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.0252603572027397E-3</v>
       </c>
       <c r="H97" t="b">
-        <f>G97&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J97">
@@ -23867,11 +24105,11 @@
         <v>-35.064213172844802</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-0.19300862643610373</v>
       </c>
       <c r="H98" t="b">
-        <f>G98&gt;0.01</f>
+        <f t="shared" ref="H98:H129" si="5">G98&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J98">
@@ -23904,11 +24142,11 @@
         <v>-20.1048433196008</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.9656268268981592E-3</v>
       </c>
       <c r="H99" t="b">
-        <f>G99&gt;0.01</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J99">
@@ -23941,11 +24179,11 @@
         <v>-21.991264674535401</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.8776963480225959E-4</v>
       </c>
       <c r="H100" t="b">
-        <f>G100&gt;0.01</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J100">
@@ -23982,8 +24220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67C59E04-117A-40AC-8D95-F23610E05770}">
   <dimension ref="A1:L101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23993,10 +24231,10 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="K1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -24023,7 +24261,7 @@
         <v>1.2211209017998215E-4</v>
       </c>
       <c r="H2" t="b">
-        <f>G2&gt;0.01</f>
+        <f t="shared" ref="H2:H33" si="0">G2&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J2">
@@ -24056,11 +24294,11 @@
         <v>-2.95326644520151</v>
       </c>
       <c r="G3" s="2">
-        <f t="shared" ref="G3:G66" si="0">F3-D3</f>
+        <f t="shared" ref="G3:G66" si="1">F3-D3</f>
         <v>2.7292064329831334E-5</v>
       </c>
       <c r="H3" t="b">
-        <f>G3&gt;0.01</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J3">
@@ -24093,11 +24331,11 @@
         <v>-2.0554386027524298</v>
       </c>
       <c r="G4" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7706604290164165E-5</v>
+      </c>
+      <c r="H4" t="b">
         <f t="shared" si="0"/>
-        <v>5.7706604290164165E-5</v>
-      </c>
-      <c r="H4" t="b">
-        <f>G4&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J4">
@@ -24130,11 +24368,11 @@
         <v>-2.00084536240275</v>
       </c>
       <c r="G5" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.6551440433400018E-3</v>
+      </c>
+      <c r="H5" t="b">
         <f t="shared" si="0"/>
-        <v>-8.6551440433400018E-3</v>
-      </c>
-      <c r="H5" t="b">
-        <f>G5&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J5">
@@ -24167,11 +24405,11 @@
         <v>-2.5969992205010999</v>
       </c>
       <c r="G6" s="2">
+        <f t="shared" si="1"/>
+        <v>1.3459548721299619E-3</v>
+      </c>
+      <c r="H6" t="b">
         <f t="shared" si="0"/>
-        <v>1.3459548721299619E-3</v>
-      </c>
-      <c r="H6" t="b">
-        <f>G6&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J6">
@@ -24204,11 +24442,11 @@
         <v>-2.5709205233904502</v>
       </c>
       <c r="G7" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.5647657120385645E-5</v>
+      </c>
+      <c r="H7" t="b">
         <f t="shared" si="0"/>
-        <v>-3.5647657120385645E-5</v>
-      </c>
-      <c r="H7" t="b">
-        <f>G7&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J7">
@@ -24241,11 +24479,11 @@
         <v>-1.99943466055526</v>
       </c>
       <c r="G8" s="2">
+        <f t="shared" si="1"/>
+        <v>6.5614619052800638E-3</v>
+      </c>
+      <c r="H8" t="b">
         <f t="shared" si="0"/>
-        <v>6.5614619052800638E-3</v>
-      </c>
-      <c r="H8" t="b">
-        <f>G8&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J8">
@@ -24278,11 +24516,11 @@
         <v>-2.0932126107881599</v>
       </c>
       <c r="G9" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2991532274009288E-4</v>
+      </c>
+      <c r="H9" t="b">
         <f t="shared" si="0"/>
-        <v>1.2991532274009288E-4</v>
-      </c>
-      <c r="H9" t="b">
-        <f>G9&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J9">
@@ -24315,11 +24553,11 @@
         <v>-2.2863434743305899</v>
       </c>
       <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.4202675814001253E-3</v>
+      </c>
+      <c r="H10" t="b">
         <f t="shared" si="0"/>
-        <v>-1.4202675814001253E-3</v>
-      </c>
-      <c r="H10" t="b">
-        <f>G10&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J10">
@@ -24352,11 +24590,11 @@
         <v>-2.5965947089322401</v>
       </c>
       <c r="G11" s="2">
+        <f t="shared" si="1"/>
+        <v>1.2405524500991305E-6</v>
+      </c>
+      <c r="H11" t="b">
         <f t="shared" si="0"/>
-        <v>1.2405524500991305E-6</v>
-      </c>
-      <c r="H11" t="b">
-        <f>G11&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J11">
@@ -24389,11 +24627,11 @@
         <v>-1.8061861209371</v>
       </c>
       <c r="G12" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.3511210123500241E-3</v>
+      </c>
+      <c r="H12" t="b">
         <f t="shared" si="0"/>
-        <v>-5.3511210123500241E-3</v>
-      </c>
-      <c r="H12" t="b">
-        <f>G12&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J12">
@@ -24426,11 +24664,11 @@
         <v>-1.98519500788729</v>
       </c>
       <c r="G13" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.0629314995422874E-7</v>
+      </c>
+      <c r="H13" t="b">
         <f t="shared" si="0"/>
-        <v>-3.0629314995422874E-7</v>
-      </c>
-      <c r="H13" t="b">
-        <f>G13&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J13">
@@ -24463,11 +24701,11 @@
         <v>-1.8157669061053601</v>
       </c>
       <c r="G14" s="2">
+        <f t="shared" si="1"/>
+        <v>1.000321668498394E-4</v>
+      </c>
+      <c r="H14" t="b">
         <f t="shared" si="0"/>
-        <v>1.000321668498394E-4</v>
-      </c>
-      <c r="H14" t="b">
-        <f>G14&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J14">
@@ -24500,11 +24738,11 @@
         <v>-2.1806555124315898</v>
       </c>
       <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>8.0658767618899674E-3</v>
+      </c>
+      <c r="H15" t="b">
         <f t="shared" si="0"/>
-        <v>8.0658767618899674E-3</v>
-      </c>
-      <c r="H15" t="b">
-        <f>G15&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J15">
@@ -24537,11 +24775,11 @@
         <v>-2.5544472807751299</v>
       </c>
       <c r="G16" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.7824799429598812E-3</v>
+      </c>
+      <c r="H16" t="b">
         <f t="shared" si="0"/>
-        <v>-2.7824799429598812E-3</v>
-      </c>
-      <c r="H16" t="b">
-        <f>G16&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J16">
@@ -24574,11 +24812,11 @@
         <v>-2.0879582229960301</v>
       </c>
       <c r="G17" s="2">
+        <f t="shared" si="1"/>
+        <v>1.7289017316497457E-3</v>
+      </c>
+      <c r="H17" t="b">
         <f t="shared" si="0"/>
-        <v>1.7289017316497457E-3</v>
-      </c>
-      <c r="H17" t="b">
-        <f>G17&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J17">
@@ -24611,11 +24849,11 @@
         <v>-1.9203670542137501</v>
       </c>
       <c r="G18" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.6451746527001987E-4</v>
+      </c>
+      <c r="H18" t="b">
         <f t="shared" si="0"/>
-        <v>-1.6451746527001987E-4</v>
-      </c>
-      <c r="H18" t="b">
-        <f>G18&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J18">
@@ -24648,11 +24886,11 @@
         <v>-2.66798374488461</v>
       </c>
       <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.1265509129816422E-5</v>
+      </c>
+      <c r="H19" t="b">
         <f t="shared" si="0"/>
-        <v>-5.1265509129816422E-5</v>
-      </c>
-      <c r="H19" t="b">
-        <f>G19&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J19">
@@ -24685,11 +24923,11 @@
         <v>-2.5235689086637798</v>
       </c>
       <c r="G20" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.3412985649718934E-5</v>
+      </c>
+      <c r="H20" t="b">
         <f t="shared" si="0"/>
-        <v>-1.3412985649718934E-5</v>
-      </c>
-      <c r="H20" t="b">
-        <f>G20&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J20">
@@ -24722,11 +24960,11 @@
         <v>-2.3409977431138498</v>
       </c>
       <c r="G21" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.2775885459861485E-5</v>
+      </c>
+      <c r="H21" t="b">
         <f t="shared" si="0"/>
-        <v>-9.2775885459861485E-5</v>
-      </c>
-      <c r="H21" t="b">
-        <f>G21&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J21">
@@ -24759,11 +24997,11 @@
         <v>-2.3989272510839701</v>
       </c>
       <c r="G22" s="2">
+        <f t="shared" si="1"/>
+        <v>5.601625577279723E-3</v>
+      </c>
+      <c r="H22" t="b">
         <f t="shared" si="0"/>
-        <v>5.601625577279723E-3</v>
-      </c>
-      <c r="H22" t="b">
-        <f>G22&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J22">
@@ -24796,11 +25034,11 @@
         <v>-2.0946881713458199</v>
       </c>
       <c r="G23" s="2">
+        <f t="shared" si="1"/>
+        <v>1.5120955912801826E-3</v>
+      </c>
+      <c r="H23" t="b">
         <f t="shared" si="0"/>
-        <v>1.5120955912801826E-3</v>
-      </c>
-      <c r="H23" t="b">
-        <f>G23&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J23">
@@ -24833,11 +25071,11 @@
         <v>-1.8768409222157101</v>
       </c>
       <c r="G24" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.5336927190089398E-5</v>
+      </c>
+      <c r="H24" t="b">
         <f t="shared" si="0"/>
-        <v>-2.5336927190089398E-5</v>
-      </c>
-      <c r="H24" t="b">
-        <f>G24&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J24">
@@ -24870,11 +25108,11 @@
         <v>-2.88149843231938</v>
       </c>
       <c r="G25" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.9381875982513748E-7</v>
+      </c>
+      <c r="H25" t="b">
         <f t="shared" si="0"/>
-        <v>-3.9381875982513748E-7</v>
-      </c>
-      <c r="H25" t="b">
-        <f>G25&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J25">
@@ -24907,11 +25145,11 @@
         <v>-2.6466598113623601</v>
       </c>
       <c r="G26" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.8714725650026409E-4</v>
+      </c>
+      <c r="H26" t="b">
         <f t="shared" si="0"/>
-        <v>-1.8714725650026409E-4</v>
-      </c>
-      <c r="H26" t="b">
-        <f>G26&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J26">
@@ -24944,11 +25182,11 @@
         <v>-2.0771846784459602</v>
       </c>
       <c r="G27" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.3332355000333962E-6</v>
+      </c>
+      <c r="H27" t="b">
         <f t="shared" si="0"/>
-        <v>-6.3332355000333962E-6</v>
-      </c>
-      <c r="H27" t="b">
-        <f>G27&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J27">
@@ -24981,11 +25219,11 @@
         <v>-1.80832680324554</v>
       </c>
       <c r="G28" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.8799287110036218E-5</v>
+      </c>
+      <c r="H28" t="b">
         <f t="shared" si="0"/>
-        <v>-3.8799287110036218E-5</v>
-      </c>
-      <c r="H28" t="b">
-        <f>G28&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J28">
@@ -25018,11 +25256,11 @@
         <v>-2.0139772529091702</v>
       </c>
       <c r="G29" s="2">
+        <f t="shared" si="1"/>
+        <v>-8.423083850006563E-5</v>
+      </c>
+      <c r="H29" t="b">
         <f t="shared" si="0"/>
-        <v>-8.423083850006563E-5</v>
-      </c>
-      <c r="H29" t="b">
-        <f>G29&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J29">
@@ -25055,11 +25293,11 @@
         <v>-2.1120065138121502</v>
       </c>
       <c r="G30" s="2">
+        <f t="shared" si="1"/>
+        <v>8.8458867311969058E-4</v>
+      </c>
+      <c r="H30" t="b">
         <f t="shared" si="0"/>
-        <v>8.8458867311969058E-4</v>
-      </c>
-      <c r="H30" t="b">
-        <f>G30&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J30">
@@ -25092,11 +25330,11 @@
         <v>-1.9380768873135801</v>
       </c>
       <c r="G31" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.3305781940097248E-5</v>
+      </c>
+      <c r="H31" t="b">
         <f t="shared" si="0"/>
-        <v>-2.3305781940097248E-5</v>
-      </c>
-      <c r="H31" t="b">
-        <f>G31&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J31">
@@ -25129,11 +25367,11 @@
         <v>-3.2338610359339501</v>
       </c>
       <c r="G32" s="2">
+        <f t="shared" si="1"/>
+        <v>3.2928145936006459E-4</v>
+      </c>
+      <c r="H32" t="b">
         <f t="shared" si="0"/>
-        <v>3.2928145936006459E-4</v>
-      </c>
-      <c r="H32" t="b">
-        <f>G32&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J32">
@@ -25166,11 +25404,11 @@
         <v>-1.93975093639365</v>
       </c>
       <c r="G33" s="2">
+        <f t="shared" si="1"/>
+        <v>1.8472608620001552E-4</v>
+      </c>
+      <c r="H33" t="b">
         <f t="shared" si="0"/>
-        <v>1.8472608620001552E-4</v>
-      </c>
-      <c r="H33" t="b">
-        <f>G33&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J33">
@@ -25203,11 +25441,11 @@
         <v>-2.05313130113589</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.7576090780139282E-5</v>
       </c>
       <c r="H34" t="b">
-        <f>G34&gt;0.01</f>
+        <f t="shared" ref="H34:H65" si="2">G34&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J34">
@@ -25240,11 +25478,11 @@
         <v>-1.83565490472153</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5394996589979115E-5</v>
       </c>
       <c r="H35" t="b">
-        <f>G35&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J35">
@@ -25277,11 +25515,11 @@
         <v>-2.1251068480445099</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.3694092296829865E-6</v>
       </c>
       <c r="H36" t="b">
-        <f>G36&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J36">
@@ -25314,11 +25552,11 @@
         <v>-2.9963391756855602</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9547861072299888E-3</v>
       </c>
       <c r="H37" t="b">
-        <f>G37&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J37">
@@ -25351,11 +25589,11 @@
         <v>-2.0959479392112601</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.5351056300168011E-5</v>
       </c>
       <c r="H38" t="b">
-        <f>G38&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J38">
@@ -25388,11 +25626,11 @@
         <v>-2.7225087080649102</v>
       </c>
       <c r="G39" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.9272068002027538E-6</v>
       </c>
       <c r="H39" t="b">
-        <f>G39&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J39">
@@ -25425,11 +25663,11 @@
         <v>-1.7776736575156</v>
       </c>
       <c r="G40" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8428538799800691E-3</v>
       </c>
       <c r="H40" t="b">
-        <f>G40&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J40">
@@ -25462,11 +25700,11 @@
         <v>-2.0256989697013199</v>
       </c>
       <c r="G41" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.7783223561005386E-4</v>
       </c>
       <c r="H41" t="b">
-        <f>G41&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J41">
@@ -25499,11 +25737,11 @@
         <v>-2.5778076157626502</v>
       </c>
       <c r="G42" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-6.3984881686502959E-3</v>
       </c>
       <c r="H42" t="b">
-        <f>G42&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J42">
@@ -25536,11 +25774,11 @@
         <v>-1.8391218004557</v>
       </c>
       <c r="G43" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.5032631632004865E-4</v>
       </c>
       <c r="H43" t="b">
-        <f>G43&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J43">
@@ -25573,11 +25811,11 @@
         <v>-1.8997195829151901</v>
       </c>
       <c r="G44" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5333321913990616E-4</v>
       </c>
       <c r="H44" t="b">
-        <f>G44&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J44">
@@ -25610,11 +25848,11 @@
         <v>-2.6968539253555801</v>
       </c>
       <c r="G45" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-4.953215580005832E-5</v>
       </c>
       <c r="H45" t="b">
-        <f>G45&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J45">
@@ -25647,11 +25885,11 @@
         <v>-2.7532672260699602</v>
       </c>
       <c r="G46" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.7543070530166034E-5</v>
       </c>
       <c r="H46" t="b">
-        <f>G46&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J46">
@@ -25684,11 +25922,11 @@
         <v>-2.48257817177879</v>
       </c>
       <c r="G47" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.4127405688002526E-4</v>
       </c>
       <c r="H47" t="b">
-        <f>G47&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J47">
@@ -25721,11 +25959,11 @@
         <v>-1.7119664095176901</v>
       </c>
       <c r="G48" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1907254692198332E-3</v>
       </c>
       <c r="H48" t="b">
-        <f>G48&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J48">
@@ -25758,11 +25996,11 @@
         <v>-2.1716907388571198</v>
       </c>
       <c r="G49" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.0129044749749312E-5</v>
       </c>
       <c r="H49" t="b">
-        <f>G49&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J49">
@@ -25795,11 +26033,11 @@
         <v>-1.89830580595084</v>
       </c>
       <c r="G50" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1377440721993537E-4</v>
       </c>
       <c r="H50" t="b">
-        <f>G50&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J50">
@@ -25832,11 +26070,11 @@
         <v>-1.87763448649176</v>
       </c>
       <c r="G51" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0469546849911637E-5</v>
       </c>
       <c r="H51" t="b">
-        <f>G51&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J51">
@@ -25869,11 +26107,11 @@
         <v>-2.4504988187566199</v>
       </c>
       <c r="G52" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-8.5338060962598661E-3</v>
       </c>
       <c r="H52" t="b">
-        <f>G52&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J52">
@@ -25906,11 +26144,11 @@
         <v>-2.3633227206844301</v>
       </c>
       <c r="G53" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4377993114012E-4</v>
       </c>
       <c r="H53" t="b">
-        <f>G53&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J53">
@@ -25943,11 +26181,11 @@
         <v>-2.48133860531376</v>
       </c>
       <c r="G54" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-5.9186400950039797E-5</v>
       </c>
       <c r="H54" t="b">
-        <f>G54&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J54">
@@ -25980,11 +26218,11 @@
         <v>-2.99889443964299</v>
       </c>
       <c r="G55" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4224260889922391E-5</v>
       </c>
       <c r="H55" t="b">
-        <f>G55&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J55">
@@ -26017,11 +26255,11 @@
         <v>-2.3725547059118499</v>
       </c>
       <c r="G56" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.2231932498099063E-3</v>
       </c>
       <c r="H56" t="b">
-        <f>G56&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J56">
@@ -26054,11 +26292,11 @@
         <v>-3.2892850009289001</v>
       </c>
       <c r="G57" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.177632899664971E-2</v>
       </c>
       <c r="H57" t="b">
-        <f>G57&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J57">
@@ -26091,11 +26329,11 @@
         <v>-3.2835979903333801</v>
       </c>
       <c r="G58" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.400985669701484E-4</v>
       </c>
       <c r="H58" t="b">
-        <f>G58&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J58">
@@ -26128,11 +26366,11 @@
         <v>-2.3822401770700901</v>
       </c>
       <c r="G59" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-1.0204199322879859E-2</v>
       </c>
       <c r="H59" t="b">
-        <f>G59&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J59">
@@ -26165,11 +26403,11 @@
         <v>-1.8465541006755799</v>
       </c>
       <c r="G60" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.939887761017502E-5</v>
       </c>
       <c r="H60" t="b">
-        <f>G60&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J60">
@@ -26202,11 +26440,11 @@
         <v>-1.98948532525226</v>
       </c>
       <c r="G61" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.9910728840111247E-5</v>
       </c>
       <c r="H61" t="b">
-        <f>G61&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J61">
@@ -26239,11 +26477,11 @@
         <v>-1.8308404351329199</v>
       </c>
       <c r="G62" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-9.5187825919884617E-5</v>
       </c>
       <c r="H62" t="b">
-        <f>G62&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J62">
@@ -26276,11 +26514,11 @@
         <v>-1.9877895082667201</v>
       </c>
       <c r="G63" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1659969739099552E-3</v>
       </c>
       <c r="H63" t="b">
-        <f>G63&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J63">
@@ -26313,11 +26551,11 @@
         <v>-2.6282830782664401</v>
       </c>
       <c r="G64" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.6174101819658233E-5</v>
       </c>
       <c r="H64" t="b">
-        <f>G64&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J64">
@@ -26350,11 +26588,11 @@
         <v>-2.2961507881466501</v>
       </c>
       <c r="G65" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-3.6968639660184266E-5</v>
       </c>
       <c r="H65" t="b">
-        <f>G65&gt;0.01</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J65">
@@ -26387,11 +26625,11 @@
         <v>-3.0599280868179402</v>
       </c>
       <c r="G66" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.789589328819897E-3</v>
       </c>
       <c r="H66" t="b">
-        <f>G66&gt;0.01</f>
+        <f t="shared" ref="H66:H97" si="3">G66&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J66">
@@ -26424,11 +26662,11 @@
         <v>-4.0848306722647596</v>
       </c>
       <c r="G67" s="2">
-        <f t="shared" ref="G67:G100" si="1">F67-D67</f>
+        <f t="shared" ref="G67:G100" si="4">F67-D67</f>
         <v>1.4006623585105515E-3</v>
       </c>
       <c r="H67" t="b">
-        <f>G67&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J67">
@@ -26461,11 +26699,11 @@
         <v>-2.08562592557284</v>
       </c>
       <c r="G68" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0669483694498716E-3</v>
       </c>
       <c r="H68" t="b">
-        <f>G68&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J68">
@@ -26498,11 +26736,11 @@
         <v>-1.7362734503537001</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6515030526700336E-3</v>
       </c>
       <c r="H69" t="b">
-        <f>G69&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J69">
@@ -26535,11 +26773,11 @@
         <v>-2.2678673310064301</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.0877182093702586E-3</v>
       </c>
       <c r="H70" t="b">
-        <f>G70&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J70">
@@ -26572,11 +26810,11 @@
         <v>-2.1011151138831998</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.0127196054301457E-3</v>
       </c>
       <c r="H71" t="b">
-        <f>G71&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J71">
@@ -26609,11 +26847,11 @@
         <v>-2.4642436771284699</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.26608915939741E-4</v>
       </c>
       <c r="H72" t="b">
-        <f>G72&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J72">
@@ -26646,11 +26884,11 @@
         <v>-2.1433561577638698</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.1112073818964063E-4</v>
       </c>
       <c r="H73" t="b">
-        <f>G73&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J73">
@@ -26683,11 +26921,11 @@
         <v>-2.68442098752588</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-5.5764250550094374E-5</v>
       </c>
       <c r="H74" t="b">
-        <f>G74&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J74">
@@ -26720,11 +26958,11 @@
         <v>-1.5296663162045101</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0.47870016630871981</v>
       </c>
       <c r="H75" t="b">
-        <f>G75&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J75">
@@ -26757,11 +26995,11 @@
         <v>-2.0514376110892498</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.2590450253968655E-4</v>
       </c>
       <c r="H76" t="b">
-        <f>G76&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J76">
@@ -26794,11 +27032,11 @@
         <v>-2.2640616861721998</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.0382844529921442E-5</v>
       </c>
       <c r="H77" t="b">
-        <f>G77&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J77">
@@ -26831,11 +27069,11 @@
         <v>-2.6464519513531801</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.1188318606900616E-3</v>
       </c>
       <c r="H78" t="b">
-        <f>G78&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J78">
@@ -26868,11 +27106,11 @@
         <v>-2.0103287277041502</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.3613598562973763E-4</v>
       </c>
       <c r="H79" t="b">
-        <f>G79&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J79">
@@ -26905,11 +27143,11 @@
         <v>-2.4274551347655402</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>7.8818020493396368E-3</v>
       </c>
       <c r="H80" t="b">
-        <f>G80&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J80">
@@ -26942,11 +27180,11 @@
         <v>-1.9062552369466199</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.100203260984145E-5</v>
       </c>
       <c r="H81" t="b">
-        <f>G81&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J81">
@@ -26979,11 +27217,11 @@
         <v>-2.7025647635073602</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.435735450900701E-4</v>
       </c>
       <c r="H82" t="b">
-        <f>G82&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J82">
@@ -27016,11 +27254,11 @@
         <v>-2.3171007484451098</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-6.9117460300027744E-5</v>
       </c>
       <c r="H83" t="b">
-        <f>G83&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J83">
@@ -27053,11 +27291,11 @@
         <v>-2.1003806805149501</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2.8570220046697514E-3</v>
       </c>
       <c r="H84" t="b">
-        <f>G84&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84">
@@ -27090,11 +27328,11 @@
         <v>-1.9299011638844501</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5.5172142959802883E-5</v>
       </c>
       <c r="H85" t="b">
-        <f>G85&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J85">
@@ -27127,11 +27365,11 @@
         <v>-1.6851335503774001</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-7.4077554195401962E-3</v>
       </c>
       <c r="H86" t="b">
-        <f>G86&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86">
@@ -27164,11 +27402,11 @@
         <v>-1.80287288788832</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.7585614529360045E-2</v>
       </c>
       <c r="H87" t="b">
-        <f>G87&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J87">
@@ -27201,11 +27439,11 @@
         <v>-2.4437637679525199</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.4981298842200452E-3</v>
       </c>
       <c r="H88" t="b">
-        <f>G88&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88">
@@ -27238,11 +27476,11 @@
         <v>-1.4926995529762099</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.0393441046399055E-3</v>
       </c>
       <c r="H89" t="b">
-        <f>G89&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89">
@@ -27275,11 +27513,11 @@
         <v>-2.28606087079927</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.723302368983326E-5</v>
       </c>
       <c r="H90" t="b">
-        <f>G90&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90">
@@ -27312,11 +27550,11 @@
         <v>-2.6729136084259801</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.2455972987259756E-2</v>
       </c>
       <c r="H91" t="b">
-        <f>G91&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="J91">
@@ -27349,11 +27587,11 @@
         <v>-2.2208085745525401</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-1.6258509758699802E-3</v>
       </c>
       <c r="H92" t="b">
-        <f>G92&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92">
@@ -27386,11 +27624,11 @@
         <v>-1.95092561767232</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1.5333452178101226E-3</v>
       </c>
       <c r="H93" t="b">
-        <f>G93&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93">
@@ -27423,11 +27661,11 @@
         <v>-2.7204278205161598</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>6.3127199100065923E-5</v>
       </c>
       <c r="H94" t="b">
-        <f>G94&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J94">
@@ -27460,11 +27698,11 @@
         <v>-1.9368880494588601</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3.2044915180799993E-3</v>
       </c>
       <c r="H95" t="b">
-        <f>G95&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J95">
@@ -27497,11 +27735,11 @@
         <v>-2.23361899363131</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.2701230059007926E-4</v>
       </c>
       <c r="H96" t="b">
-        <f>G96&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J96">
@@ -27534,11 +27772,11 @@
         <v>-2.0401386293677</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9.5438511105401247E-3</v>
       </c>
       <c r="H97" t="b">
-        <f>G97&gt;0.01</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J97">
@@ -27571,11 +27809,11 @@
         <v>-2.1199560009250802</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.0259092654502098E-3</v>
       </c>
       <c r="H98" t="b">
-        <f>G98&gt;0.01</f>
+        <f t="shared" ref="H98:H129" si="5">G98&gt;0.01</f>
         <v>0</v>
       </c>
       <c r="J98">
@@ -27608,11 +27846,11 @@
         <v>-2.3513272497486501</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-3.9337984693998962E-4</v>
       </c>
       <c r="H99" t="b">
-        <f>G99&gt;0.01</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J99">
@@ -27645,11 +27883,11 @@
         <v>-2.0185766903924298</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>-2.4100518009300131E-3</v>
       </c>
       <c r="H100" t="b">
-        <f>G100&gt;0.01</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J100">
